--- a/sriramModel-nelson-melancholic-patientID_55-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_55-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.93485566406599</v>
+        <v>18.93581087465425</v>
       </c>
       <c r="C2">
-        <v>18.92015214843509</v>
+        <v>19.06709028217287</v>
       </c>
       <c r="D2">
-        <v>19.01807128451221</v>
+        <v>18.9361373481435</v>
       </c>
       <c r="E2">
-        <v>18.99674993493069</v>
+        <v>18.92792332692329</v>
       </c>
       <c r="F2">
-        <v>18.99726012031567</v>
+        <v>18.9201860440444</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.85577540442424</v>
+        <v>18.85792771592625</v>
       </c>
       <c r="C3">
-        <v>18.82666954939935</v>
+        <v>19.12067563544892</v>
       </c>
       <c r="D3">
-        <v>19.0210284410436</v>
+        <v>18.85823250899903</v>
       </c>
       <c r="E3">
-        <v>18.98129328199549</v>
+        <v>18.84212565268585</v>
       </c>
       <c r="F3">
-        <v>18.97891274978046</v>
+        <v>18.82673630765776</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.78274162931067</v>
+        <v>18.78633290489246</v>
       </c>
       <c r="C4">
-        <v>18.73954110444619</v>
+        <v>19.18048447405167</v>
       </c>
       <c r="D4">
-        <v>19.02879180658915</v>
+        <v>18.7862655733386</v>
       </c>
       <c r="E4">
-        <v>18.97351084645299</v>
+        <v>18.762577890269</v>
       </c>
       <c r="F4">
-        <v>18.96494691744665</v>
+        <v>18.73963796666581</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.71573691455766</v>
+        <v>18.72100895921387</v>
       </c>
       <c r="C5">
-        <v>18.65875575260601</v>
+        <v>19.24625294485182</v>
       </c>
       <c r="D5">
-        <v>19.04128320460542</v>
+        <v>18.72021719186067</v>
       </c>
       <c r="E5">
-        <v>18.97328732575521</v>
+        <v>18.68925368677489</v>
       </c>
       <c r="F5">
-        <v>18.95535146926791</v>
+        <v>18.65887848962465</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.65474418140689</v>
+        <v>18.66193871932562</v>
       </c>
       <c r="C6">
-        <v>18.58430266042555</v>
+        <v>19.31772404102856</v>
       </c>
       <c r="D6">
-        <v>19.05842583568221</v>
+        <v>18.66006875835334</v>
       </c>
       <c r="E6">
-        <v>18.98050977398165</v>
+        <v>18.62212909365544</v>
       </c>
       <c r="F6">
-        <v>18.95011531157283</v>
+        <v>18.58444578873377</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.59974669367136</v>
+        <v>18.60910534638312</v>
       </c>
       <c r="C7">
-        <v>18.51617120370515</v>
+        <v>19.39464724605193</v>
       </c>
       <c r="D7">
-        <v>19.08014430310361</v>
+        <v>18.6058023888572</v>
       </c>
       <c r="E7">
-        <v>18.995066240754</v>
+        <v>18.56118214639196</v>
       </c>
       <c r="F7">
-        <v>18.94922742477821</v>
+        <v>18.51632818569007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.5507280304729</v>
+        <v>18.56249229083115</v>
       </c>
       <c r="C8">
-        <v>18.45435095550391</v>
+        <v>19.47677784451942</v>
       </c>
       <c r="D8">
-        <v>19.10636450434603</v>
+        <v>18.55740084157776</v>
       </c>
       <c r="E8">
-        <v>19.01684459267597</v>
+        <v>18.50639252336028</v>
       </c>
       <c r="F8">
-        <v>18.95267688159752</v>
+        <v>18.45451435866956</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.50767207376061</v>
+        <v>18.52208327506042</v>
       </c>
       <c r="C9">
-        <v>18.39883166972278</v>
+        <v>19.56387656142075</v>
       </c>
       <c r="D9">
-        <v>19.1370134955723</v>
+        <v>18.51484744586825</v>
       </c>
       <c r="E9">
-        <v>19.04573158499181</v>
+        <v>18.45774130773345</v>
       </c>
       <c r="F9">
-        <v>18.96045285415748</v>
+        <v>18.39899331350991</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.47056299499587</v>
+        <v>18.48786227993111</v>
       </c>
       <c r="C10">
-        <v>18.34960326749553</v>
+        <v>19.65570924923527</v>
       </c>
       <c r="D10">
-        <v>19.1720194075877</v>
+        <v>18.47812606332328</v>
       </c>
       <c r="E10">
-        <v>19.0816120761872</v>
+        <v>18.41521078917584</v>
       </c>
       <c r="F10">
-        <v>18.9725446188808</v>
+        <v>18.34975435250481</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43938523880995</v>
+        <v>18.45981352690551</v>
       </c>
       <c r="C11">
-        <v>18.30665582545063</v>
+        <v>19.75204657067786</v>
       </c>
       <c r="D11">
-        <v>19.2113113808482</v>
+        <v>18.44722104804033</v>
       </c>
       <c r="E11">
-        <v>19.12436838196037</v>
+        <v>18.37878430263971</v>
       </c>
       <c r="F11">
-        <v>18.98894156074117</v>
+        <v>18.30678704549881</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.41412351265075</v>
+        <v>18.43792146043238</v>
       </c>
       <c r="C12">
-        <v>18.26997956508966</v>
+        <v>19.85266376842906</v>
       </c>
       <c r="D12">
-        <v>19.25481949093795</v>
+        <v>18.42211719750811</v>
       </c>
       <c r="E12">
-        <v>19.17387960473317</v>
+        <v>18.34844607612377</v>
       </c>
       <c r="F12">
-        <v>19.00963317361271</v>
+        <v>18.27008120959431</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.39476277968379</v>
+        <v>18.42217073211715</v>
       </c>
       <c r="C13">
-        <v>18.23956484245679</v>
+        <v>19.95734045381657</v>
       </c>
       <c r="D13">
-        <v>19.3024746568406</v>
+        <v>18.40279971268259</v>
       </c>
       <c r="E13">
-        <v>19.23002105671814</v>
+        <v>18.32418111714896</v>
       </c>
       <c r="F13">
-        <v>19.03460905657736</v>
+        <v>18.2396268888269</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.38128823656739</v>
+        <v>18.41254618493762</v>
       </c>
       <c r="C14">
-        <v>18.21540213636839</v>
+        <v>20.06586039168253</v>
       </c>
       <c r="D14">
-        <v>19.35420855784067</v>
+        <v>18.38925416334779</v>
       </c>
       <c r="E14">
-        <v>19.29266381837579</v>
+        <v>18.30597512054644</v>
       </c>
       <c r="F14">
-        <v>19.06385890611793</v>
+        <v>18.21541433515338</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.37368530272835</v>
+        <v>18.40903283794207</v>
       </c>
       <c r="C15">
-        <v>18.19748204810838</v>
+        <v>20.1780113088468</v>
       </c>
       <c r="D15">
-        <v>19.4099535622784</v>
+        <v>18.38146645543308</v>
       </c>
       <c r="E15">
-        <v>19.36167435689098</v>
+        <v>18.29381439092662</v>
       </c>
       <c r="F15">
-        <v>19.09737250539429</v>
+        <v>18.19743398257668</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.3719396141058</v>
+        <v>18.41161586848206</v>
       </c>
       <c r="C16">
-        <v>18.18579528279286</v>
+        <v>20.29358478393325</v>
       </c>
       <c r="D16">
-        <v>19.46964265705567</v>
+        <v>18.37942279325522</v>
       </c>
       <c r="E16">
-        <v>19.43691413229108</v>
+        <v>18.2876857761677</v>
       </c>
       <c r="F16">
-        <v>19.1351397081034</v>
+        <v>18.1856764377627</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.3760370145242</v>
+        <v>18.42028059375028</v>
       </c>
       <c r="C17">
-        <v>18.18033264317951</v>
+        <v>20.41237614345777</v>
       </c>
       <c r="D17">
-        <v>19.53320937605988</v>
+        <v>18.38310966644689</v>
       </c>
       <c r="E17">
-        <v>19.51823924559027</v>
+        <v>18.28757660098033</v>
       </c>
       <c r="F17">
-        <v>19.17715042438571</v>
+        <v>18.18013246714102</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.38596354326616</v>
+        <v>18.43501246446797</v>
       </c>
       <c r="C18">
-        <v>18.18108502415853</v>
+        <v>20.53418434222333</v>
       </c>
       <c r="D18">
-        <v>19.60058772843334</v>
+        <v>18.39251380663325</v>
       </c>
       <c r="E18">
-        <v>19.60550015472898</v>
+        <v>18.29347461406094</v>
       </c>
       <c r="F18">
-        <v>19.22339459097088</v>
+        <v>18.18079298632843</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.40170542421903</v>
+        <v>18.45579703280482</v>
       </c>
       <c r="C19">
-        <v>18.18804340703139</v>
+        <v>20.65881185044614</v>
       </c>
       <c r="D19">
-        <v>19.6717121173396</v>
+        <v>18.40762215916703</v>
       </c>
       <c r="E19">
-        <v>19.69854137429092</v>
+        <v>18.30536794049473</v>
       </c>
       <c r="F19">
-        <v>19.27386215429053</v>
+        <v>18.18764904627411</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.42324905650769</v>
+        <v>18.48261993267032</v>
       </c>
       <c r="C20">
-        <v>18.20119885213542</v>
+        <v>20.78606457841034</v>
       </c>
       <c r="D20">
-        <v>19.74651727424991</v>
+        <v>18.42842186622364</v>
       </c>
       <c r="E20">
-        <v>19.79720132263773</v>
+        <v>18.32324505393949</v>
       </c>
       <c r="F20">
-        <v>19.32854303231353</v>
+        <v>18.20069182261213</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.4505810059513</v>
+        <v>18.51546686231455</v>
       </c>
       <c r="C21">
-        <v>18.22054249122599</v>
+        <v>20.91575176724048</v>
       </c>
       <c r="D21">
-        <v>19.82493825340191</v>
+        <v>18.45490021484973</v>
       </c>
       <c r="E21">
-        <v>19.90131214775054</v>
+        <v>18.34709473671887</v>
       </c>
       <c r="F21">
-        <v>19.38742707622224</v>
+        <v>18.21991260517141</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.48368799619891</v>
+        <v>18.5543235634772</v>
       </c>
       <c r="C22">
-        <v>18.24606552083363</v>
+        <v>21.04768594551117</v>
       </c>
       <c r="D22">
-        <v>19.90691027249594</v>
+        <v>18.48704462917534</v>
       </c>
       <c r="E22">
-        <v>20.01069958297666</v>
+        <v>18.37690604461404</v>
       </c>
       <c r="F22">
-        <v>19.45050403469464</v>
+        <v>18.24530278774445</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.5225568993471</v>
+        <v>18.59917579534325</v>
       </c>
       <c r="C23">
-        <v>18.27775919621835</v>
+        <v>21.18168284902374</v>
       </c>
       <c r="D23">
-        <v>19.99236865614517</v>
+        <v>18.52484263364272</v>
       </c>
       <c r="E23">
-        <v>20.12518283531981</v>
+        <v>18.412668280006</v>
       </c>
       <c r="F23">
-        <v>19.51776350690817</v>
+        <v>18.27685385968021</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.567174727093</v>
+        <v>18.65000930500713</v>
       </c>
       <c r="C24">
-        <v>18.31561482558186</v>
+        <v>21.317561385398</v>
       </c>
       <c r="D24">
-        <v>20.08124878124492</v>
+        <v>18.56828183107501</v>
       </c>
       <c r="E24">
-        <v>20.24457455714246</v>
+        <v>18.45437096783535</v>
       </c>
       <c r="F24">
-        <v>19.58919489119791</v>
+        <v>18.31455739740115</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.61752862111103</v>
+        <v>18.70680979594224</v>
       </c>
       <c r="C25">
-        <v>18.35962376401266</v>
+        <v>21.45514360671635</v>
       </c>
       <c r="D25">
-        <v>20.17348600119048</v>
+        <v>18.61734986996403</v>
       </c>
       <c r="E25">
-        <v>20.36868081923454</v>
+        <v>18.50200383105917</v>
       </c>
       <c r="F25">
-        <v>19.66478732872787</v>
+        <v>18.35840505189599</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.67360584644261</v>
+        <v>18.76956289426728</v>
       </c>
       <c r="C26">
-        <v>18.40977740705477</v>
+        <v>21.59425461548891</v>
       </c>
       <c r="D26">
-        <v>20.26901559709653</v>
+        <v>18.6720344151249</v>
       </c>
       <c r="E26">
-        <v>20.49730113645907</v>
+        <v>18.55555676939585</v>
       </c>
       <c r="F26">
-        <v>19.74452964453367</v>
+        <v>18.40838855185418</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.73539378027996</v>
+        <v>18.83825411132948</v>
       </c>
       <c r="C27">
-        <v>18.46606718515326</v>
+        <v>21.73472259329737</v>
       </c>
       <c r="D27">
-        <v>20.3677726920168</v>
+        <v>18.73232311489375</v>
       </c>
       <c r="E27">
-        <v>20.63022854087524</v>
+        <v>18.6150198401202</v>
       </c>
       <c r="F27">
-        <v>19.8284102677953</v>
+        <v>18.46449968858929</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>18.80287990383687</v>
+        <v>18.91286880767288</v>
       </c>
       <c r="C28">
-        <v>18.52848455589511</v>
+        <v>21.87637870982271</v>
       </c>
       <c r="D28">
-        <v>20.469692158694</v>
+        <v>18.79820356486733</v>
       </c>
       <c r="E28">
-        <v>20.76724972878222</v>
+        <v>18.68038324047576</v>
       </c>
       <c r="F28">
-        <v>19.91641716065049</v>
+        <v>18.52673030994596</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>18.87605179222997</v>
+        <v>18.99339213004719</v>
       </c>
       <c r="C29">
-        <v>18.59702100029218</v>
+        <v>22.01905713100012</v>
       </c>
       <c r="D29">
-        <v>20.57470857986842</v>
+        <v>18.86966327306901</v>
       </c>
       <c r="E29">
-        <v>20.90814521349946</v>
+        <v>18.75163729040533</v>
       </c>
       <c r="F29">
-        <v>20.00853773870595</v>
+        <v>18.59507231027728</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>18.95489710578644</v>
+        <v>19.07980899008467</v>
       </c>
       <c r="C30">
-        <v>18.67166801217541</v>
+        <v>22.16259496477256</v>
       </c>
       <c r="D30">
-        <v>20.68275611085234</v>
+        <v>18.94668962222066</v>
       </c>
       <c r="E30">
-        <v>21.05268951453537</v>
+        <v>18.82877241436427</v>
       </c>
       <c r="F30">
-        <v>20.10475876862952</v>
+        <v>18.6695176220885</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19.03940357910259</v>
+        <v>19.17210396320148</v>
       </c>
       <c r="C31">
-        <v>18.7524170961815</v>
+        <v>22.3068322588583</v>
       </c>
       <c r="D31">
-        <v>20.7937684758601</v>
+        <v>19.02926982705321</v>
       </c>
       <c r="E31">
-        <v>21.20065143423624</v>
+        <v>18.91177912460592</v>
       </c>
       <c r="F31">
-        <v>20.20506627101097</v>
+        <v>18.75005820917816</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>19.12955901158838</v>
+        <v>19.27026126281665</v>
       </c>
       <c r="C32">
-        <v>18.83925975436367</v>
+        <v>22.45161197328568</v>
       </c>
       <c r="D32">
-        <v>20.90767879216574</v>
+        <v>19.11739088986574</v>
       </c>
       <c r="E32">
-        <v>21.35179435597493</v>
+        <v>19.00064800452607</v>
       </c>
       <c r="F32">
-        <v>20.30944542120964</v>
+        <v>18.83668605738161</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>19.2253512558735</v>
+        <v>19.37426463545133</v>
       </c>
       <c r="C33">
-        <v>18.93218748509554</v>
+        <v>22.5967799706531</v>
       </c>
       <c r="D33">
-        <v>21.02441957224598</v>
+        <v>19.21103955652589</v>
       </c>
       <c r="E33">
-        <v>21.50587658722997</v>
+        <v>19.09536969290139</v>
       </c>
       <c r="F33">
-        <v>20.41788041176548</v>
+        <v>18.92939316726151</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>19.32676820582264</v>
+        <v>19.48409728860901</v>
       </c>
       <c r="C34">
-        <v>19.03119176701239</v>
+        <v>22.74218502100622</v>
       </c>
       <c r="D34">
-        <v>21.14392254868201</v>
+        <v>19.31020225811665</v>
       </c>
       <c r="E34">
-        <v>21.66265171559342</v>
+        <v>19.19593486783075</v>
       </c>
       <c r="F34">
-        <v>20.5303543268618</v>
+        <v>19.02817154275612</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>19.43379778559744</v>
+        <v>19.59974181310623</v>
       </c>
       <c r="C35">
-        <v>19.13626405861718</v>
+        <v>22.88767876741335</v>
       </c>
       <c r="D35">
-        <v>21.26611864952043</v>
+        <v>19.41486505331397</v>
       </c>
       <c r="E35">
-        <v>21.8218690812851</v>
+        <v>19.30233422955404</v>
       </c>
       <c r="F35">
-        <v>20.64684901470004</v>
+        <v>19.13301318169631</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>19.54642793256956</v>
+        <v>19.72118003643456</v>
       </c>
       <c r="C36">
-        <v>19.24739577808541</v>
+        <v>23.03311574491361</v>
       </c>
       <c r="D36">
-        <v>21.39093784057455</v>
+        <v>19.52501357030671</v>
       </c>
       <c r="E36">
-        <v>21.98327422887748</v>
+        <v>19.41455848281295</v>
       </c>
       <c r="F36">
-        <v>20.76734491139505</v>
+        <v>19.24391006309618</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>19.66464658806669</v>
+        <v>19.84839296396951</v>
       </c>
       <c r="C37">
-        <v>19.36457830471579</v>
+        <v>23.17835335301465</v>
       </c>
       <c r="D37">
-        <v>21.51830907066007</v>
+        <v>19.64063292884526</v>
       </c>
       <c r="E37">
-        <v>22.14660941141266</v>
+        <v>19.53259831774195</v>
       </c>
       <c r="F37">
-        <v>20.89182087950419</v>
+        <v>19.36085413492303</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>19.7884416744143</v>
+        <v>19.98136058158881</v>
       </c>
       <c r="C38">
-        <v>19.48780295177012</v>
+        <v>23.32325186299137</v>
       </c>
       <c r="D38">
-        <v>21.64816011415469</v>
+        <v>19.7617076616522</v>
       </c>
       <c r="E38">
-        <v>22.31161411624838</v>
+        <v>19.65644438915194</v>
       </c>
       <c r="F38">
-        <v>21.02025404357795</v>
+        <v>19.48383730015742</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>19.91780108332075</v>
+        <v>20.12006175158889</v>
       </c>
       <c r="C39">
-        <v>19.61706097136776</v>
+        <v>23.4676744096821</v>
       </c>
       <c r="D39">
-        <v>21.78041750331484</v>
+        <v>19.88822163366613</v>
       </c>
       <c r="E39">
-        <v>22.47802567103978</v>
+        <v>19.78608729466169</v>
       </c>
       <c r="F39">
-        <v>21.15261956774527</v>
+        <v>19.61285140188847</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>20.0527126518739</v>
+        <v>20.26447403123441</v>
       </c>
       <c r="C40">
-        <v>19.75234351710479</v>
+        <v>23.61148699989545</v>
       </c>
       <c r="D40">
-        <v>21.91500634834622</v>
+        <v>20.02015793736339</v>
       </c>
       <c r="E40">
-        <v>22.64557982910586</v>
+        <v>19.92151755007255</v>
       </c>
       <c r="F40">
-        <v>21.28889044690412</v>
+        <v>19.74788820467636</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>20.19316413964176</v>
+        <v>20.41457343431198</v>
       </c>
       <c r="C41">
-        <v>19.89364165380628</v>
+        <v>23.75455850627953</v>
       </c>
       <c r="D41">
-        <v>22.05185026784683</v>
+        <v>20.15749877800346</v>
       </c>
       <c r="E41">
-        <v>22.81401138750805</v>
+        <v>20.06272556334963</v>
       </c>
       <c r="F41">
-        <v>21.42903729676473</v>
+        <v>19.88893937460691</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>20.33914321068081</v>
+        <v>20.57033432148789</v>
       </c>
       <c r="C42">
-        <v>20.04094630604617</v>
+        <v>23.89676067440451</v>
       </c>
       <c r="D42">
-        <v>22.19087117829058</v>
+        <v>20.30022535632192</v>
       </c>
       <c r="E42">
-        <v>22.98305484604538</v>
+        <v>20.20970160273091</v>
       </c>
       <c r="F42">
-        <v>21.57302807363868</v>
+        <v>20.03599645886763</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>20.49063739101773</v>
+        <v>20.73172901141443</v>
       </c>
       <c r="C43">
-        <v>20.19424827442754</v>
+        <v>24.03796812657306</v>
       </c>
       <c r="D43">
-        <v>22.33198921874236</v>
+        <v>20.44831772432631</v>
       </c>
       <c r="E43">
-        <v>23.15244507665795</v>
+        <v>20.36243576215118</v>
       </c>
       <c r="F43">
-        <v>21.72082780685841</v>
+        <v>20.18905085690981</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>20.64763405501393</v>
+        <v>20.89872763761513</v>
       </c>
       <c r="C44">
-        <v>20.35353816430823</v>
+        <v>24.17805836018402</v>
       </c>
       <c r="D44">
-        <v>22.47512251152506</v>
+        <v>20.60175461125157</v>
       </c>
       <c r="E44">
-        <v>23.32191799340481</v>
+        <v>20.52091792069407</v>
       </c>
       <c r="F44">
-        <v>21.87239833074452</v>
+        <v>20.34809379060651</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>20.81012036712877</v>
+        <v>21.07129774153088</v>
       </c>
       <c r="C45">
-        <v>20.51880641127187</v>
+        <v>24.31691175889562</v>
       </c>
       <c r="D45">
-        <v>22.62018707145454</v>
+        <v>20.76051324315953</v>
       </c>
       <c r="E45">
-        <v>23.49121123101592</v>
+        <v>20.6851376976885</v>
       </c>
       <c r="F45">
-        <v>22.02769793356349</v>
+        <v>20.51311627139792</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>20.97808325571867</v>
+        <v>21.24940391291363</v>
       </c>
       <c r="C46">
-        <v>20.69004319778976</v>
+        <v>24.45441159079492</v>
       </c>
       <c r="D46">
-        <v>22.76709653753877</v>
+        <v>20.92456914420886</v>
       </c>
       <c r="E46">
-        <v>23.6600648439177</v>
+        <v>20.85508439772615</v>
       </c>
       <c r="F46">
-        <v>22.18668101377735</v>
+        <v>20.68410905851123</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21.15150935512124</v>
+        <v>21.43300750547511</v>
       </c>
       <c r="C47">
-        <v>20.86723844037433</v>
+        <v>24.59044401794332</v>
       </c>
       <c r="D47">
-        <v>22.91576205903212</v>
+        <v>21.09389586169585</v>
       </c>
       <c r="E47">
-        <v>23.82822198332498</v>
+        <v>21.03074694651586</v>
       </c>
       <c r="F47">
-        <v>22.34929773884737</v>
+        <v>20.86106260894422</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>21.33038493416752</v>
+        <v>21.62206594147494</v>
       </c>
       <c r="C48">
-        <v>21.05038172738875</v>
+        <v>24.72489809763685</v>
       </c>
       <c r="D48">
-        <v>23.06609199300057</v>
+        <v>21.26846467897465</v>
       </c>
       <c r="E48">
-        <v>23.99542957086225</v>
+        <v>21.21211381592814</v>
       </c>
       <c r="F48">
-        <v>22.51549360558596</v>
+        <v>21.04396702046499</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>21.51469586430796</v>
+        <v>21.81653247456583</v>
       </c>
       <c r="C49">
-        <v>21.23946227059447</v>
+        <v>24.85766579010911</v>
       </c>
       <c r="D49">
-        <v>23.21799176065981</v>
+        <v>21.44824433237899</v>
       </c>
       <c r="E49">
-        <v>24.16143897020505</v>
+        <v>21.39917293294009</v>
       </c>
       <c r="F49">
-        <v>22.68520899933133</v>
+        <v>21.23281197222756</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>21.70442747771698</v>
+        <v>22.01635530613833</v>
       </c>
       <c r="C50">
-        <v>21.43446884925761</v>
+        <v>24.98864196138671</v>
       </c>
       <c r="D50">
-        <v>23.37136350438363</v>
+        <v>21.63320055550459</v>
       </c>
       <c r="E50">
-        <v>24.3260066277017</v>
+        <v>21.59191157830938</v>
       </c>
       <c r="F50">
-        <v>22.85837875897405</v>
+        <v>21.42758663304127</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>21.89956453858546</v>
+        <v>22.22147707579387</v>
       </c>
       <c r="C51">
-        <v>21.63538971937268</v>
+        <v>25.117724389293</v>
       </c>
       <c r="D51">
-        <v>23.5261059045433</v>
+        <v>21.82329562977828</v>
       </c>
       <c r="E51">
-        <v>24.48889469465283</v>
+        <v>21.79031625020022</v>
       </c>
       <c r="F51">
-        <v>23.03493162754317</v>
+        <v>21.62827956480857</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>22.10009105696696</v>
+        <v>22.43183408775555</v>
       </c>
       <c r="C52">
-        <v>21.84221251476608</v>
+        <v>25.24481376592786</v>
       </c>
       <c r="D52">
-        <v>23.68211379116129</v>
+        <v>22.01848792104349</v>
       </c>
       <c r="E52">
-        <v>24.64987162862966</v>
+        <v>21.99437250884915</v>
       </c>
       <c r="F52">
-        <v>23.21478968531711</v>
+        <v>21.8348786181228</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22.30599022471829</v>
+        <v>22.64735512476872</v>
       </c>
       <c r="C53">
-        <v>22.05492415751996</v>
+        <v>25.36981370366833</v>
       </c>
       <c r="D53">
-        <v>23.83927790586124</v>
+        <v>22.21873116086342</v>
       </c>
       <c r="E53">
-        <v>24.80871276952933</v>
+        <v>22.20406478055817</v>
       </c>
       <c r="F53">
-        <v>23.39786779439952</v>
+        <v>22.04737077574546</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>22.51724415475983</v>
+        <v>22.86796097708305</v>
       </c>
       <c r="C54">
-        <v>22.27351068601611</v>
+        <v>25.49263073470309</v>
       </c>
       <c r="D54">
-        <v>23.9974844648179</v>
+        <v>22.42397368266307</v>
       </c>
       <c r="E54">
-        <v>24.96520085463986</v>
+        <v>22.41937613249152</v>
       </c>
       <c r="F54">
-        <v>23.5840729102718</v>
+        <v>22.26574197172399</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>22.73383370711601</v>
+        <v>23.09356255163969</v>
       </c>
       <c r="C55">
-        <v>22.49795708205637</v>
+        <v>25.61317431760611</v>
       </c>
       <c r="D55">
-        <v>24.15661491481287</v>
+        <v>22.63415763337745</v>
       </c>
       <c r="E55">
-        <v>25.11912651731895</v>
+        <v>22.64028797228099</v>
       </c>
       <c r="F55">
-        <v>23.77330333772856</v>
+        <v>22.48997688296178</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>22.95573823017082</v>
+        <v>23.32406014492917</v>
       </c>
       <c r="C56">
-        <v>22.72824712140588</v>
+        <v>25.73135683406477</v>
       </c>
       <c r="D56">
-        <v>24.31654529495796</v>
+        <v>22.84921781667319</v>
       </c>
       <c r="E56">
-        <v>25.27028875883299</v>
+        <v>22.86677968114698</v>
       </c>
       <c r="F56">
-        <v>23.96544804510748</v>
+        <v>22.72005868367431</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23.18293523145893</v>
+        <v>23.55934151303851</v>
       </c>
       <c r="C57">
-        <v>22.96436300943227</v>
+        <v>25.8470935941748</v>
       </c>
       <c r="D57">
-        <v>24.4771458854198</v>
+        <v>23.06908034239994</v>
       </c>
       <c r="E57">
-        <v>25.41849534491334</v>
+        <v>23.09882815679466</v>
       </c>
       <c r="F57">
-        <v>24.16038580612848</v>
+        <v>22.95596864395924</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23.41539999818052</v>
+        <v>23.79927986153278</v>
       </c>
       <c r="C58">
-        <v>23.2062850833147</v>
+        <v>25.96030283240226</v>
       </c>
       <c r="D58">
-        <v>24.63828068861103</v>
+        <v>23.29366121378609</v>
       </c>
       <c r="E58">
-        <v>25.56356316483881</v>
+        <v>23.33640723252414</v>
       </c>
       <c r="F58">
-        <v>24.35798423701409</v>
+        <v>23.19768570687662</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>23.65310505079373</v>
+        <v>24.04373277428359</v>
       </c>
       <c r="C59">
-        <v>23.45399138715704</v>
+        <v>26.07090570851067</v>
       </c>
       <c r="D59">
-        <v>24.79980688118337</v>
+        <v>23.52286444792902</v>
       </c>
       <c r="E59">
-        <v>25.70531855022955</v>
+        <v>23.57948698431646</v>
       </c>
       <c r="F59">
-        <v>24.55809888762597</v>
+        <v>23.44518594125091</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>23.89601950003183</v>
+        <v>24.2925385293833</v>
       </c>
       <c r="C60">
-        <v>23.70745712247717</v>
+        <v>26.17882630582105</v>
       </c>
       <c r="D60">
-        <v>24.961574159704</v>
+        <v>23.75657959403836</v>
       </c>
       <c r="E60">
-        <v>25.8435975763458</v>
+        <v>23.82803274211322</v>
       </c>
       <c r="F60">
-        <v>24.76057216011322</v>
+        <v>23.69844182454647</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>24.14410820787439</v>
+        <v>24.54551380894876</v>
       </c>
       <c r="C61">
-        <v>23.96665392438634</v>
+        <v>26.28399162373443</v>
       </c>
       <c r="D61">
-        <v>25.12342410566542</v>
+        <v>23.99467907516223</v>
       </c>
       <c r="E61">
-        <v>25.97824624175059</v>
+        <v>24.08200390148787</v>
       </c>
       <c r="F61">
-        <v>24.96523208105135</v>
+        <v>23.95742128869288</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>24.39733071324616</v>
+        <v>24.80245044199194</v>
       </c>
       <c r="C62">
-        <v>24.23154891143937</v>
+        <v>26.38633158148157</v>
       </c>
       <c r="D62">
-        <v>25.28518941448452</v>
+        <v>24.23701514134705</v>
       </c>
       <c r="E62">
-        <v>26.10912065327148</v>
+        <v>24.34135231408984</v>
       </c>
       <c r="F62">
-        <v>25.17189111787437</v>
+        <v>24.22208645847617</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>24.6556398800421</v>
+        <v>25.06311183743761</v>
       </c>
       <c r="C63">
-        <v>24.50210342970035</v>
+        <v>26.48577900204692</v>
       </c>
       <c r="D63">
-        <v>25.44669301481539</v>
+        <v>24.48341515404071</v>
       </c>
       <c r="E63">
-        <v>26.23608714757062</v>
+        <v>24.60602037163338</v>
       </c>
       <c r="F63">
-        <v>25.38034483739319</v>
+        <v>24.49239197457922</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>24.91897998240153</v>
+        <v>25.32722865828121</v>
       </c>
       <c r="C64">
-        <v>24.77827136782092</v>
+        <v>26.5822696164266</v>
       </c>
       <c r="D64">
-        <v>25.60774721532389</v>
+        <v>24.73367727371549</v>
       </c>
       <c r="E64">
-        <v>26.35902239584953</v>
+        <v>24.8759382261973</v>
       </c>
       <c r="F64">
-        <v>25.59037029869061</v>
+        <v>24.7682827338324</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>25.18728427814473</v>
+        <v>25.59449379573017</v>
       </c>
       <c r="C65">
-        <v>25.05999685311199</v>
+        <v>26.67574204551936</v>
       </c>
       <c r="D65">
-        <v>25.76815273115087</v>
+        <v>24.98756323349653</v>
       </c>
       <c r="E65">
-        <v>26.47781338194823</v>
+        <v>25.15102030955093</v>
       </c>
       <c r="F65">
-        <v>25.80172451537061</v>
+        <v>25.04969080249984</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>25.46047166866513</v>
+        <v>25.8645565960614</v>
       </c>
       <c r="C66">
-        <v>25.34721112549546</v>
+        <v>26.76613779996531</v>
       </c>
       <c r="D66">
-        <v>25.9276975110366</v>
+        <v>25.24479117040659</v>
       </c>
       <c r="E66">
-        <v>26.59235740660986</v>
+        <v>25.43116071634874</v>
       </c>
       <c r="F66">
-        <v>26.01414278129258</v>
+        <v>25.33653115479127</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>25.73844235501268</v>
+        <v>26.13701647994237</v>
       </c>
       <c r="C67">
-        <v>25.63982809736596</v>
+        <v>26.85340126322286</v>
       </c>
       <c r="D67">
-        <v>26.08615558685568</v>
+        <v>25.50502672873296</v>
       </c>
       <c r="E67">
-        <v>26.70256203808416</v>
+        <v>25.716226322886</v>
       </c>
       <c r="F67">
-        <v>26.22733656606722</v>
+        <v>25.62869573881603</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>26.02107238528546</v>
+        <v>26.41141534776819</v>
       </c>
       <c r="C68">
-        <v>25.93773813742948</v>
+        <v>26.93747968386831</v>
       </c>
       <c r="D68">
-        <v>26.24328589778698</v>
+        <v>25.76787184380674</v>
       </c>
       <c r="E68">
-        <v>26.80834500200505</v>
+        <v>26.00604874273</v>
       </c>
       <c r="F68">
-        <v>26.44099152881523</v>
+        <v>25.92604555360711</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>26.30820411008405</v>
+        <v>26.68722919699079</v>
       </c>
       <c r="C69">
-        <v>26.24079967442641</v>
+        <v>27.01832316326689</v>
       </c>
       <c r="D69">
-        <v>26.39883074200762</v>
+        <v>26.03285112713196</v>
       </c>
       <c r="E69">
-        <v>26.90963402383984</v>
+        <v>26.30041309640132</v>
       </c>
       <c r="F69">
-        <v>26.65476544133213</v>
+        <v>26.22839789727258</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>26.59963509529539</v>
+        <v>26.96385871570999</v>
       </c>
       <c r="C70">
-        <v>26.54882538251987</v>
+        <v>27.09588463698428</v>
       </c>
       <c r="D70">
-        <v>26.55251440890043</v>
+        <v>26.29939591258774</v>
       </c>
       <c r="E70">
-        <v>27.0063666600441</v>
+        <v>26.59904255189413</v>
       </c>
       <c r="F70">
-        <v>26.86828546384808</v>
+        <v>26.53551033212893</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>26.89510268872706</v>
+        <v>27.24061882831444</v>
       </c>
       <c r="C71">
-        <v>26.86156403258216</v>
+        <v>27.17011986933774</v>
       </c>
       <c r="D71">
-        <v>26.70404177115212</v>
+        <v>26.56682589733077</v>
       </c>
       <c r="E71">
-        <v>27.0984901048581</v>
+        <v>26.90157768199181</v>
       </c>
       <c r="F71">
-        <v>27.0811456232042</v>
+        <v>26.84705732585071</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>27.19426222670836</v>
+        <v>27.51672759726619</v>
       </c>
       <c r="C72">
-        <v>27.17867376122134</v>
+        <v>27.24098742574547</v>
       </c>
       <c r="D72">
-        <v>26.85309660897396</v>
+        <v>26.83432846517615</v>
       </c>
       <c r="E72">
-        <v>27.18596092161091</v>
+        <v>27.20754910359245</v>
       </c>
       <c r="F72">
-        <v>27.29290426282906</v>
+        <v>27.16259692308327</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>27.496654832084</v>
+        <v>27.79129425904799</v>
       </c>
       <c r="C73">
-        <v>27.49968221565994</v>
+        <v>27.30844866739867</v>
       </c>
       <c r="D73">
-        <v>26.9993403034473</v>
+        <v>27.10093635094973</v>
       </c>
       <c r="E73">
-        <v>27.26874477885369</v>
+        <v>27.51634129213065</v>
       </c>
       <c r="F73">
-        <v>27.50308063879899</v>
+        <v>27.48152521559578</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>27.80166652278925</v>
+        <v>28.06330722038597</v>
       </c>
       <c r="C74">
-        <v>27.82393072910145</v>
+        <v>27.37246772280709</v>
       </c>
       <c r="D74">
-        <v>27.14241040732414</v>
+        <v>27.36550516426544</v>
       </c>
       <c r="E74">
-        <v>27.34681615667413</v>
+        <v>27.82714619383987</v>
       </c>
       <c r="F74">
-        <v>27.71115208758011</v>
+        <v>27.80301565340204</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>28.10847096569706</v>
+        <v>28.33162298806657</v>
       </c>
       <c r="C75">
-        <v>28.15049554895517</v>
+        <v>27.43301147740351</v>
       </c>
       <c r="D75">
-        <v>27.28191979883417</v>
+        <v>27.62669334764985</v>
       </c>
       <c r="E75">
-        <v>27.42015804646657</v>
+        <v>28.13890426925641</v>
       </c>
       <c r="F75">
-        <v>27.91655043981851</v>
+        <v>28.12594034783382</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>28.41595432256102</v>
+        <v>28.59495700369463</v>
       </c>
       <c r="C76">
-        <v>28.47808257413837</v>
+        <v>27.49004954729289</v>
       </c>
       <c r="D76">
-        <v>27.41745620851006</v>
+        <v>27.88294733496742</v>
       </c>
       <c r="E76">
-        <v>27.48876158969481</v>
+        <v>28.45023038646289</v>
       </c>
       <c r="F76">
-        <v>28.11865869306284</v>
+        <v>28.44877480428575</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>28.72262101838181</v>
+        <v>28.85187672725648</v>
       </c>
       <c r="C77">
-        <v>28.80489490467406</v>
+        <v>27.54355426164253</v>
       </c>
       <c r="D77">
-        <v>27.54858245314142</v>
+        <v>28.13250121833651</v>
       </c>
       <c r="E77">
-        <v>27.55262574104309</v>
+        <v>28.75933374229046</v>
       </c>
       <c r="F77">
-        <v>28.31680770073861</v>
+        <v>28.76949073844536</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>29.02648262538223</v>
+        <v>29.10080428255865</v>
       </c>
       <c r="C78">
-        <v>29.12848132721505</v>
+        <v>27.593500641064</v>
       </c>
       <c r="D78">
-        <v>27.67483803283132</v>
+        <v>28.37339102334106</v>
       </c>
       <c r="E78">
-        <v>27.61175690752229</v>
+        <v>29.06393233152203</v>
       </c>
       <c r="F78">
-        <v>28.51027291122965</v>
+        <v>29.08545306548125</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>29.32494123166278</v>
+        <v>29.34002445820604</v>
       </c>
       <c r="C79">
-        <v>29.44558879939117</v>
+        <v>27.63986637111398</v>
       </c>
       <c r="D79">
-        <v>27.79574222968575</v>
+        <v>28.60349303918695</v>
       </c>
       <c r="E79">
-        <v>27.66616857743729</v>
+        <v>29.36117822880784</v>
       </c>
       <c r="F79">
-        <v>28.69827145232215</v>
+        <v>29.39334160049907</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>29.6146910963927</v>
+        <v>29.56770526399553</v>
       </c>
       <c r="C80">
-        <v>29.75206205813353</v>
+        <v>27.68263178606515</v>
       </c>
       <c r="D80">
-        <v>27.9107990241302</v>
+        <v>28.82059077478168</v>
       </c>
       <c r="E80">
-        <v>27.71588093305755</v>
+        <v>29.64761985635689</v>
       </c>
       <c r="F80">
-        <v>28.87995992453444</v>
+        <v>29.68913598937285</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>29.89167973421245</v>
+        <v>29.78193456017381</v>
       </c>
       <c r="C81">
-        <v>30.04285498791157</v>
+        <v>27.72177983610365</v>
       </c>
       <c r="D81">
-        <v>28.01950471726891</v>
+        <v>29.02247065202819</v>
       </c>
       <c r="E81">
-        <v>27.76092047413442</v>
+        <v>29.91923428083908</v>
       </c>
       <c r="F81">
-        <v>29.05443335331889</v>
+        <v>29.96820619245113</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>30.15118397756777</v>
+        <v>29.98077488366154</v>
       </c>
       <c r="C82">
-        <v>30.31222853106927</v>
+        <v>27.75729607087834</v>
       </c>
       <c r="D82">
-        <v>28.12135826915975</v>
+        <v>29.20704114695404</v>
       </c>
       <c r="E82">
-        <v>27.80131963388894</v>
+        <v>30.17157251462702</v>
       </c>
       <c r="F82">
-        <v>29.22072593684671</v>
+        <v>30.22554881472773</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>30.38806092159689</v>
+        <v>30.16233578246193</v>
       </c>
       <c r="C83">
-        <v>30.55419199284411</v>
+        <v>27.78916860686041</v>
       </c>
       <c r="D83">
-        <v>28.21587439855254</v>
+        <v>29.37246254730237</v>
       </c>
       <c r="E83">
-        <v>27.83711639047451</v>
+        <v>30.40003333267363</v>
       </c>
       <c r="F83">
-        <v>29.37781448879017</v>
+        <v>30.45618303463988</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>30.59718955886321</v>
+        <v>30.32486354232923</v>
       </c>
       <c r="C84">
-        <v>30.76317465771147</v>
+        <v>27.81738810706133</v>
       </c>
       <c r="D84">
-        <v>28.30259914224709</v>
+        <v>29.51727191613137</v>
       </c>
       <c r="E84">
-        <v>27.86835388666859</v>
+        <v>30.6002751016572</v>
       </c>
       <c r="F84">
-        <v>29.52462555208077</v>
+        <v>30.65566923754175</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>30.77407612266527</v>
+        <v>30.4668415664462</v>
       </c>
       <c r="C85">
-        <v>30.9348069857186</v>
+        <v>27.84194775044467</v>
       </c>
       <c r="D85">
-        <v>28.38112665669559</v>
+        <v>29.64048225089652</v>
       </c>
       <c r="E85">
-        <v>27.89508005366534</v>
+        <v>30.76870233959525</v>
       </c>
       <c r="F85">
-        <v>29.66004797476538</v>
+        <v>30.82065230889138</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>30.91548616848333</v>
+        <v>30.58709121373197</v>
       </c>
       <c r="C86">
-        <v>31.06659550241276</v>
+        <v>27.86284320689389</v>
       </c>
       <c r="D86">
-        <v>28.45111591418604</v>
+        <v>29.74164079481949</v>
       </c>
       <c r="E86">
-        <v>27.91734723584337</v>
+        <v>30.90292339724673</v>
       </c>
       <c r="F86">
-        <v>29.78295471194632</v>
+        <v>30.94929103856388</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31.01992423311802</v>
+        <v>30.68485933918515</v>
       </c>
       <c r="C87">
-        <v>31.15825852036159</v>
+        <v>27.88007260978381</v>
       </c>
       <c r="D87">
-        <v>28.51230529557525</v>
+        <v>29.82083706189566</v>
       </c>
       <c r="E87">
-        <v>27.9352118288554</v>
+        <v>31.00205497150968</v>
       </c>
       <c r="F87">
-        <v>29.892231228665</v>
+        <v>31.04145065041387</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>31.08780326615871</v>
+        <v>30.75988081153498</v>
       </c>
       <c r="C88">
-        <v>31.21162666334402</v>
+        <v>27.89363652592068</v>
       </c>
       <c r="D88">
-        <v>28.56452290276473</v>
+        <v>29.87865894515605</v>
       </c>
       <c r="E88">
-        <v>27.94873392488946</v>
+        <v>31.06678395756529</v>
       </c>
       <c r="F88">
-        <v>29.98681591910522</v>
+        <v>31.09860903701608</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31.12125673863675</v>
+        <v>30.81239584981738</v>
       </c>
       <c r="C89">
-        <v>31.23016600478661</v>
+        <v>27.9035379310278</v>
       </c>
       <c r="D89">
-        <v>28.60769176671265</v>
+        <v>29.91611745355143</v>
       </c>
       <c r="E89">
-        <v>27.95797696847648</v>
+        <v>31.0991768643784</v>
       </c>
       <c r="F89">
-        <v>30.06575453097847</v>
+        <v>31.12352339232304</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31.12368035320417</v>
+        <v>30.84313278479857</v>
       </c>
       <c r="C90">
-        <v>31.2183150439141</v>
+        <v>27.9097821767738</v>
       </c>
       <c r="D90">
-        <v>28.64182927713896</v>
+        <v>29.93454385643773</v>
       </c>
       <c r="E90">
-        <v>27.96300741396835</v>
+        <v>31.10230751387224</v>
       </c>
       <c r="F90">
-        <v>30.12826463484186</v>
+        <v>31.11977058808991</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31.09916598451079</v>
+        <v>30.85324527812202</v>
       </c>
       <c r="C91">
-        <v>31.18083813172076</v>
+        <v>27.91237696596567</v>
       </c>
       <c r="D91">
-        <v>28.66704101715043</v>
+        <v>29.93547639423755</v>
       </c>
       <c r="E91">
-        <v>27.96389441410718</v>
+        <v>31.07981595848161</v>
       </c>
       <c r="F91">
-        <v>30.17380486334777</v>
+        <v>31.091284435471</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31.05198143627855</v>
+        <v>30.8442188552524</v>
       </c>
       <c r="C92">
-        <v>31.12233536249718</v>
+        <v>27.91133232017418</v>
       </c>
       <c r="D92">
-        <v>28.68351066310315</v>
+        <v>29.92056153307984</v>
       </c>
       <c r="E92">
-        <v>27.96070950642599</v>
+        <v>31.03550227870711</v>
       </c>
       <c r="F92">
-        <v>30.20214211649433</v>
+        <v>31.04197726001222</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>30.9861862997183</v>
+        <v>30.81776295278911</v>
       </c>
       <c r="C93">
-        <v>31.04694129157037</v>
+        <v>27.90666055375641</v>
       </c>
       <c r="D93">
-        <v>28.69148718888086</v>
+        <v>29.89146587753432</v>
       </c>
       <c r="E93">
-        <v>27.9535263137309</v>
+        <v>30.97301796304705</v>
       </c>
       <c r="F93">
-        <v>30.21340083136445</v>
+        <v>30.975482336145</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>30.90540419524275</v>
+        <v>30.77570138009689</v>
       </c>
       <c r="C94">
-        <v>30.95818878994695</v>
+        <v>27.89837624342013</v>
       </c>
       <c r="D94">
-        <v>28.69127109477448</v>
+        <v>29.84980891384692</v>
       </c>
       <c r="E94">
-        <v>27.94242026002188</v>
+        <v>30.89567207356417</v>
       </c>
       <c r="F94">
-        <v>30.20808067205376</v>
+        <v>30.89501267362838</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>30.81272656603038</v>
+        <v>30.71987475778095</v>
       </c>
       <c r="C95">
-        <v>30.85899235958287</v>
+        <v>27.8864961961151</v>
       </c>
       <c r="D95">
-        <v>28.68320091411119</v>
+        <v>29.79711703417854</v>
       </c>
       <c r="E95">
-        <v>27.92746830769988</v>
+        <v>30.80633826818209</v>
       </c>
       <c r="F95">
-        <v>30.18703335520019</v>
+        <v>30.80331036076016</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>30.71070669528215</v>
+        <v>30.6520626390271</v>
       </c>
       <c r="C96">
-        <v>30.7516963054571</v>
+        <v>27.87103942086991</v>
       </c>
       <c r="D96">
-        <v>28.66764085626535</v>
+        <v>29.73479479505327</v>
       </c>
       <c r="E96">
-        <v>27.90874869934373</v>
+        <v>30.70743529071407</v>
       </c>
       <c r="F96">
-        <v>30.15139930367082</v>
+        <v>30.70265570534607</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>30.60140527521816</v>
+        <v>30.57392784772231</v>
       </c>
       <c r="C97">
-        <v>30.63815392448409</v>
+        <v>27.85202710161862</v>
       </c>
       <c r="D97">
-        <v>28.6449701074034</v>
+        <v>29.66411077516728</v>
       </c>
       <c r="E97">
-        <v>27.88634070915392</v>
+        <v>30.60095293812726</v>
       </c>
       <c r="F97">
-        <v>30.10251640025974</v>
+        <v>30.59490973717109</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>30.48645867045533</v>
+        <v>30.48698261996953</v>
       </c>
       <c r="C98">
-        <v>30.51981265274413</v>
+        <v>27.82948256547416</v>
       </c>
       <c r="D98">
-        <v>28.61557396953337</v>
+        <v>29.58619436910279</v>
       </c>
       <c r="E98">
-        <v>27.86032442298559</v>
+        <v>30.48850121430372</v>
       </c>
       <c r="F98">
-        <v>30.0418199264078</v>
+        <v>30.48157105731036</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>30.36715178244799</v>
+        <v>30.39257259886491</v>
       </c>
       <c r="C99">
-        <v>30.39779450660145</v>
+        <v>27.80343125742909</v>
       </c>
       <c r="D99">
-        <v>28.57983676300956</v>
+        <v>29.5020398003188</v>
       </c>
       <c r="E99">
-        <v>27.83078052434659</v>
+        <v>30.37136746915038</v>
       </c>
       <c r="F99">
-        <v>29.97075162111732</v>
+        <v>30.36383510415575</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>30.24448638104438</v>
+        <v>30.29187460248086</v>
       </c>
       <c r="C100">
-        <v>30.272965338379</v>
+        <v>27.77390070912415</v>
       </c>
       <c r="D100">
-        <v>28.53813626205287</v>
+        <v>29.41251485396223</v>
       </c>
       <c r="E100">
-        <v>27.79779009392898</v>
+        <v>30.25057268619624</v>
       </c>
       <c r="F100">
-        <v>29.8906894826302</v>
+        <v>30.24264965263857</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>30.11924007297638</v>
+        <v>30.18590386904528</v>
       </c>
       <c r="C101">
-        <v>30.14599127055693</v>
+        <v>27.74092051347443</v>
       </c>
       <c r="D101">
-        <v>28.49083967630962</v>
+        <v>29.31837209215412</v>
       </c>
       <c r="E101">
-        <v>27.76143441352835</v>
+        <v>30.1269222945567</v>
       </c>
       <c r="F101">
-        <v>29.80290195500172</v>
+        <v>30.11876309800367</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>29.99201466425419</v>
+        <v>30.07552695311277</v>
       </c>
       <c r="C102">
-        <v>30.01738442655977</v>
+        <v>27.70452229611127</v>
       </c>
       <c r="D102">
-        <v>28.43830086236818</v>
+        <v>29.22026095247405</v>
       </c>
       <c r="E102">
-        <v>27.72179480550148</v>
+        <v>30.00104958638212</v>
       </c>
       <c r="F102">
-        <v>29.70852422807386</v>
+        <v>29.99276517810128</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>29.86327568027368</v>
+        <v>29.96147750225722</v>
       </c>
       <c r="C103">
-        <v>29.88753855310505</v>
+        <v>27.66473968994984</v>
       </c>
       <c r="D103">
-        <v>28.38085837845719</v>
+        <v>29.11873993487509</v>
       </c>
       <c r="E103">
-        <v>27.67895246660184</v>
+        <v>29.87345151665442</v>
       </c>
       <c r="F103">
-        <v>29.60855143488212</v>
+        <v>29.86512000317284</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>29.73338320074115</v>
+        <v>29.844372795671</v>
       </c>
       <c r="C104">
-        <v>29.75675691390321</v>
+        <v>27.62160831208676</v>
       </c>
       <c r="D104">
-        <v>28.31883420051937</v>
+        <v>29.01428836404443</v>
       </c>
       <c r="E104">
-        <v>27.63298831878928</v>
+        <v>29.74451775629529</v>
       </c>
       <c r="F104">
-        <v>29.50384301575892</v>
+        <v>29.73619281470238</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>29.60261600750404</v>
+        <v>29.72472988974669</v>
       </c>
       <c r="C105">
-        <v>29.62527327775042</v>
+        <v>27.57516573652353</v>
       </c>
       <c r="D105">
-        <v>28.25253315448738</v>
+        <v>28.90731708598086</v>
       </c>
       <c r="E105">
-        <v>27.5839828672442</v>
+        <v>29.61455394071278</v>
       </c>
       <c r="F105">
-        <v>29.39513348693301</v>
+        <v>29.60627148088298</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>29.47119042352467</v>
+        <v>29.60298068633946</v>
       </c>
       <c r="C106">
-        <v>29.49326841342706</v>
+        <v>27.52545148281679</v>
       </c>
       <c r="D106">
-        <v>28.18224275717444</v>
+        <v>28.79817795376673</v>
       </c>
       <c r="E106">
-        <v>27.53201608568502</v>
+        <v>29.48380016000845</v>
       </c>
       <c r="F106">
-        <v>29.2830462110573</v>
+        <v>29.47558306810688</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>29.33927454055023</v>
+        <v>29.47948528752388</v>
       </c>
       <c r="C107">
-        <v>29.36088235433845</v>
+        <v>27.47250698326561</v>
       </c>
       <c r="D107">
-        <v>28.10823339132288</v>
+        <v>28.68717224224974</v>
       </c>
       <c r="E107">
-        <v>27.47716729697475</v>
+        <v>29.35244516475451</v>
       </c>
       <c r="F107">
-        <v>29.16810787301904</v>
+        <v>29.34430696425713</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>29.20699928646852</v>
+        <v>29.35454357048945</v>
       </c>
       <c r="C108">
-        <v>29.22822392441833</v>
+        <v>27.41637558705034</v>
       </c>
       <c r="D108">
-        <v>28.03075868567374</v>
+        <v>28.57455804694177</v>
       </c>
       <c r="E108">
-        <v>27.41951506577208</v>
+        <v>29.22063760693442</v>
       </c>
       <c r="F108">
-        <v>29.05076235123828</v>
+        <v>29.21258529481092</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>29.0744669780234</v>
+        <v>29.22840517445768</v>
       </c>
       <c r="C109">
-        <v>29.09537791205268</v>
+        <v>27.35710252456641</v>
       </c>
       <c r="D109">
-        <v>27.95005608625833</v>
+        <v>28.4605566674381</v>
       </c>
       <c r="E109">
-        <v>27.35913710783614</v>
+        <v>29.08849484982508</v>
       </c>
       <c r="F109">
-        <v>28.9313833318779</v>
+        <v>29.08053086190967</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>28.9417577285647</v>
+        <v>29.10127801451548</v>
       </c>
       <c r="C110">
-        <v>28.96241057261106</v>
+        <v>27.294734924657</v>
       </c>
       <c r="D110">
-        <v>27.86634754141112</v>
+        <v>28.34535806800426</v>
       </c>
       <c r="E110">
-        <v>27.29611020815254</v>
+        <v>28.95610975458828</v>
       </c>
       <c r="F110">
-        <v>28.81028540348638</v>
+        <v>28.94823339471881</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>28.80893443898072</v>
+        <v>28.97333539670289</v>
       </c>
       <c r="C111">
-        <v>28.82937384491355</v>
+        <v>27.22932180449231</v>
       </c>
       <c r="D111">
-        <v>27.77984024741394</v>
+        <v>28.22912553449691</v>
       </c>
       <c r="E111">
-        <v>27.23051014392552</v>
+        <v>28.82355594693205</v>
       </c>
       <c r="F111">
-        <v>28.68773358538857</v>
+        <v>28.81576448992865</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>28.67604667008728</v>
+        <v>28.844721996921</v>
       </c>
       <c r="C112">
-        <v>28.69630852605623</v>
+        <v>27.16091407747554</v>
       </c>
       <c r="D112">
-        <v>27.69072743604816</v>
+        <v>28.11199962398453</v>
       </c>
       <c r="E112">
-        <v>27.16241161277192</v>
+        <v>28.69089193899363</v>
       </c>
       <c r="F112">
-        <v>28.56395143814063</v>
+        <v>28.68318140622342</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>28.54313355491579</v>
+        <v>28.71555873094506</v>
       </c>
       <c r="C113">
-        <v>28.56324674810272</v>
+        <v>27.08956456641256</v>
       </c>
       <c r="D113">
-        <v>27.59918917602585</v>
+        <v>27.99410154423779</v>
       </c>
       <c r="E113">
-        <v>27.09188818511205</v>
+        <v>28.55816437668069</v>
       </c>
       <c r="F113">
-        <v>28.43912794766678</v>
+        <v>28.55053004513379</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>28.4102260760588</v>
+        <v>28.58594684619426</v>
       </c>
       <c r="C114">
-        <v>28.43021396047986</v>
+        <v>27.01532802970079</v>
       </c>
       <c r="D114">
-        <v>27.5053931708609</v>
+        <v>27.87553600972937</v>
       </c>
       <c r="E114">
-        <v>27.01901225608342</v>
+        <v>28.42541051609272</v>
       </c>
       <c r="F114">
-        <v>28.313423204069</v>
+        <v>28.41784731436979</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>28.2773488228151</v>
+        <v>28.45597129134768</v>
       </c>
       <c r="C115">
-        <v>28.29723040398106</v>
+        <v>26.93826119944348</v>
       </c>
       <c r="D115">
-        <v>27.40949553992635</v>
+        <v>27.75639365663067</v>
       </c>
       <c r="E115">
-        <v>26.9438549628597</v>
+        <v>28.29266018542117</v>
       </c>
       <c r="F115">
-        <v>28.18697302772732</v>
+        <v>28.28516292984283</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>28.14452135008152</v>
+        <v>28.32570348941686</v>
       </c>
       <c r="C116">
-        <v>28.16431216211732</v>
+        <v>26.85842283355395</v>
       </c>
       <c r="D116">
-        <v>27.3116415802166</v>
+        <v>27.63675308900078</v>
       </c>
       <c r="E116">
-        <v>26.86648622320864</v>
+        <v>28.15993731844835</v>
       </c>
       <c r="F116">
-        <v>28.05989293733133</v>
+        <v>28.15250089296673</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>28.01175930281227</v>
+        <v>28.19520362114157</v>
       </c>
       <c r="C117">
-        <v>28.03147199868037</v>
+        <v>26.77587378260992</v>
       </c>
       <c r="D117">
-        <v>27.21196648918676</v>
+        <v>27.51668261424177</v>
       </c>
       <c r="E117">
-        <v>26.78697457350961</v>
+        <v>28.02726114970029</v>
       </c>
       <c r="F117">
-        <v>27.93228148404582</v>
+        <v>28.01988069589219</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>27.87907523865218</v>
+        <v>28.06452250915082</v>
       </c>
       <c r="C118">
-        <v>27.89872007828565</v>
+        <v>26.69067708539884</v>
       </c>
       <c r="D118">
-        <v>27.11059606842037</v>
+        <v>27.3962417141124</v>
       </c>
       <c r="E118">
-        <v>26.70538732587616</v>
+        <v>27.89464720211314</v>
       </c>
       <c r="F118">
-        <v>27.80422293657847</v>
+        <v>27.88731819784999</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>27.74647923301401</v>
+        <v>27.93370316969253</v>
       </c>
       <c r="C119">
-        <v>27.76606454914629</v>
+        <v>26.60289808362911</v>
       </c>
       <c r="D119">
-        <v>27.00764736370171</v>
+        <v>27.27548229037188</v>
       </c>
       <c r="E119">
-        <v>26.6217903381109</v>
+        <v>27.76210804918795</v>
       </c>
       <c r="F119">
-        <v>27.67578953630176</v>
+        <v>27.75482630243217</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>27.613979357928</v>
+        <v>27.80278210565432</v>
       </c>
       <c r="C120">
-        <v>27.63351197058342</v>
+        <v>26.51260458087516</v>
       </c>
       <c r="D120">
-        <v>26.90322928196224</v>
+        <v>27.15444972674538</v>
       </c>
       <c r="E120">
-        <v>26.53624822072359</v>
+        <v>27.62965395638757</v>
       </c>
       <c r="F120">
-        <v>27.54704335610796</v>
+        <v>27.62241550046765</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>27.48158207182095</v>
+        <v>27.67179035896756</v>
       </c>
       <c r="C121">
-        <v>27.50106762003468</v>
+        <v>26.41986701982863</v>
       </c>
       <c r="D121">
-        <v>26.79744317601594</v>
+        <v>27.03318378356071</v>
       </c>
       <c r="E121">
-        <v>26.4488241253866</v>
+        <v>27.49729316717299</v>
       </c>
       <c r="F121">
-        <v>27.41803788008503</v>
+        <v>27.49009433981502</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>27.34929258364293</v>
+        <v>27.54075439003248</v>
       </c>
       <c r="C122">
-        <v>27.36873573860233</v>
+        <v>26.32475870712855</v>
       </c>
       <c r="D122">
-        <v>26.69038338311135</v>
+        <v>26.91171934297709</v>
       </c>
       <c r="E122">
-        <v>26.35957990766691</v>
+        <v>27.36503235728609</v>
       </c>
       <c r="F122">
-        <v>27.28881930507132</v>
+        <v>27.35786982278152</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>27.21711512152698</v>
+        <v>27.40969679151595</v>
       </c>
       <c r="C123">
-        <v>27.23651971510044</v>
+        <v>26.22735609462185</v>
       </c>
       <c r="D123">
-        <v>26.5821377406036</v>
+        <v>26.7900870944762</v>
       </c>
       <c r="E123">
-        <v>26.26857599108668</v>
+        <v>27.2328769625047</v>
       </c>
       <c r="F123">
-        <v>27.1594275910575</v>
+        <v>27.22574771473403</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>27.08505311256869</v>
+        <v>27.27863690952787</v>
       </c>
       <c r="C124">
-        <v>27.10442230683146</v>
+        <v>26.12773912030726</v>
       </c>
       <c r="D124">
-        <v>26.47278804662192</v>
+        <v>26.66831417290056</v>
       </c>
       <c r="E124">
-        <v>26.17587147081252</v>
+        <v>27.10083142263507</v>
       </c>
       <c r="F124">
-        <v>27.02989743839323</v>
+        <v>27.09373275992836</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>26.95310932922172</v>
+        <v>27.14759132604913</v>
       </c>
       <c r="C125">
-        <v>26.97244570927242</v>
+        <v>26.0259916148861</v>
       </c>
       <c r="D125">
-        <v>26.36241049922745</v>
+        <v>26.54642450968329</v>
       </c>
       <c r="E125">
-        <v>26.081524031512</v>
+        <v>26.96889937002537</v>
       </c>
       <c r="F125">
-        <v>26.90025908068236</v>
+        <v>26.96182885855867</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>26.82128601087832</v>
+        <v>27.01657438926223</v>
       </c>
       <c r="C126">
-        <v>26.84059175795291</v>
+        <v>25.92220178257829</v>
       </c>
       <c r="D126">
-        <v>26.2510761054467</v>
+        <v>26.42443927858369</v>
       </c>
       <c r="E126">
-        <v>25.98559003545941</v>
+        <v>26.83708378646446</v>
       </c>
       <c r="F126">
-        <v>26.77053887824932</v>
+        <v>26.83003921676783</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>26.68958494991857</v>
+        <v>26.8855984653817</v>
       </c>
       <c r="C127">
-        <v>26.70886192233083</v>
+        <v>25.81646276196565</v>
       </c>
       <c r="D127">
-        <v>26.13885105686044</v>
+        <v>26.30237728976386</v>
       </c>
       <c r="E127">
-        <v>25.88812445197329</v>
+        <v>26.70538709633765</v>
       </c>
       <c r="F127">
-        <v>26.64075985968588</v>
+        <v>26.69836645828194</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>26.55800762329916</v>
+        <v>26.75467419544375</v>
       </c>
       <c r="C128">
-        <v>26.5772573541223</v>
+        <v>25.70887326467247</v>
       </c>
       <c r="D128">
-        <v>26.02579708453661</v>
+        <v>26.18025519022306</v>
       </c>
       <c r="E128">
-        <v>25.78918095679857</v>
+        <v>26.57381127072989</v>
       </c>
       <c r="F128">
-        <v>26.51094217636066</v>
+        <v>26.56681277447149</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>26.42655518607905</v>
+        <v>26.6238107903989</v>
       </c>
       <c r="C129">
-        <v>26.44577902948712</v>
+        <v>25.59953827239406</v>
       </c>
       <c r="D129">
-        <v>25.91197177814933</v>
+        <v>26.05808780882742</v>
       </c>
       <c r="E129">
-        <v>25.68881186405583</v>
+        <v>26.44235791563681</v>
       </c>
       <c r="F129">
-        <v>26.38110350664249</v>
+        <v>26.43537995149258</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>26.29522864316649</v>
+        <v>26.49301623886351</v>
       </c>
       <c r="C130">
-        <v>26.31442767276436</v>
+        <v>25.48856975808406</v>
       </c>
       <c r="D130">
-        <v>25.7974288844201</v>
+        <v>25.93588836580982</v>
       </c>
       <c r="E130">
-        <v>25.58706822361149</v>
+        <v>26.31102834866954</v>
       </c>
       <c r="F130">
-        <v>26.25125938946139</v>
+        <v>26.30406950452315</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>26.1640287457248</v>
+        <v>26.36229746778781</v>
       </c>
       <c r="C131">
-        <v>26.18320387678634</v>
+        <v>25.37608736224167</v>
       </c>
       <c r="D131">
-        <v>25.68221858677096</v>
+        <v>25.81366870428197</v>
       </c>
       <c r="E131">
-        <v>25.48399977670737</v>
+        <v>26.17982365536217</v>
       </c>
       <c r="F131">
-        <v>26.12142353101219</v>
+        <v>26.17288268277367</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>26.0329561435491</v>
+        <v>26.23166051748641</v>
       </c>
       <c r="C132">
-        <v>26.05210811045473</v>
+        <v>25.26221883662575</v>
       </c>
       <c r="D132">
-        <v>25.56638776080342</v>
+        <v>25.69143940701688</v>
       </c>
       <c r="E132">
-        <v>25.37965502926524</v>
+        <v>26.04874470940073</v>
       </c>
       <c r="F132">
-        <v>25.99160803728811</v>
+        <v>26.04182047803372</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>25.90201132431108</v>
+        <v>26.10111066247769</v>
       </c>
       <c r="C133">
-        <v>25.92114073944375</v>
+        <v>25.14710010832506</v>
       </c>
       <c r="D133">
-        <v>25.44998021355007</v>
+        <v>25.56920995923792</v>
       </c>
       <c r="E133">
-        <v>25.27408123946984</v>
+        <v>25.91779226135425</v>
       </c>
       <c r="F133">
-        <v>25.86182361616327</v>
+        <v>25.91088376177755</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>25.77119466721945</v>
+        <v>25.97065252604069</v>
       </c>
       <c r="C134">
-        <v>25.79030205685899</v>
+        <v>25.0308746168955</v>
       </c>
       <c r="D134">
-        <v>25.33303690207766</v>
+        <v>25.44698888368864</v>
       </c>
       <c r="E134">
-        <v>25.16732446303155</v>
+        <v>25.78696685807156</v>
       </c>
       <c r="F134">
-        <v>25.73207976018013</v>
+        <v>25.78007318821708</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>25.64050647475464</v>
+        <v>25.84029013656011</v>
       </c>
       <c r="C135">
-        <v>25.65959228555191</v>
+        <v>24.91369161005053</v>
       </c>
       <c r="D135">
-        <v>25.2155961331236</v>
+        <v>25.32478384062967</v>
       </c>
       <c r="E135">
-        <v>25.05942958200963</v>
+        <v>25.65626899590495</v>
       </c>
       <c r="F135">
-        <v>25.60238488599133</v>
+        <v>25.64938931619683</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>25.50994696533125</v>
+        <v>25.71002702483075</v>
       </c>
       <c r="C136">
-        <v>25.52901158506931</v>
+        <v>24.79570306260069</v>
       </c>
       <c r="D136">
-        <v>25.09769375093809</v>
+        <v>25.20260172847245</v>
       </c>
       <c r="E136">
-        <v>24.95044033067944</v>
+        <v>25.52569901658893</v>
       </c>
       <c r="F136">
-        <v>25.47274647241615</v>
+        <v>25.5188325862687</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>25.3795163085459</v>
+        <v>25.57986629079879</v>
       </c>
       <c r="C137">
-        <v>25.39856007533299</v>
+        <v>24.67705925925043</v>
       </c>
       <c r="D137">
-        <v>24.97936329582722</v>
+        <v>25.08044877180395</v>
       </c>
       <c r="E137">
-        <v>24.84039932738662</v>
+        <v>25.3952572105615</v>
       </c>
       <c r="F137">
-        <v>25.34317116290857</v>
+        <v>25.38840335753676</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>25.2492146235489</v>
+        <v>25.44981065127464</v>
       </c>
       <c r="C138">
-        <v>25.26823782739436</v>
+        <v>24.55790328043147</v>
       </c>
       <c r="D138">
-        <v>24.86063621510992</v>
+        <v>24.95833058684492</v>
       </c>
       <c r="E138">
-        <v>24.72934810604673</v>
+        <v>25.26494378900396</v>
       </c>
       <c r="F138">
-        <v>25.21366492520644</v>
+        <v>25.25810192472944</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>25.11904199689386</v>
+        <v>25.31986248804999</v>
       </c>
       <c r="C139">
-        <v>25.13804488250197</v>
+        <v>24.43836552714015</v>
       </c>
       <c r="D139">
-        <v>24.741541930265</v>
+        <v>24.83625226787773</v>
       </c>
       <c r="E139">
-        <v>24.61732715422561</v>
+        <v>25.13475891667035</v>
       </c>
       <c r="F139">
-        <v>25.08423303368076</v>
+        <v>25.12792850951598</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>24.98899847940103</v>
+        <v>25.19002392884007</v>
       </c>
       <c r="C140">
-        <v>25.00798125527376</v>
+        <v>24.31855932624642</v>
       </c>
       <c r="D140">
-        <v>24.62210810013099</v>
+        <v>24.71421842347326</v>
       </c>
       <c r="E140">
-        <v>24.50437595155888</v>
+        <v>25.00470271383772</v>
       </c>
       <c r="F140">
-        <v>24.95488031206524</v>
+        <v>24.99788329984233</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>24.85908409298295</v>
+        <v>25.06029680016657</v>
       </c>
       <c r="C141">
-        <v>24.87804693758445</v>
+        <v>24.19857858519893</v>
       </c>
       <c r="D141">
-        <v>24.50236059106827</v>
+        <v>24.59223324828624</v>
       </c>
       <c r="E141">
-        <v>24.39053300675895</v>
+        <v>24.87477526389025</v>
       </c>
       <c r="F141">
-        <v>24.82561097467521</v>
+        <v>24.86796642160067</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>24.72929883883758</v>
+        <v>24.93068280661725</v>
       </c>
       <c r="C142">
-        <v>24.74824190430966</v>
+        <v>24.07849774299536</v>
       </c>
       <c r="D142">
-        <v>24.38232374587219</v>
+        <v>24.4703005781305</v>
       </c>
       <c r="E142">
-        <v>24.27583590597177</v>
+        <v>24.74497662257667</v>
       </c>
       <c r="F142">
-        <v>24.69642891194043</v>
+        <v>24.73817797354715</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>24.5996426931516</v>
+        <v>24.80118334490584</v>
       </c>
       <c r="C143">
-        <v>24.61856611452226</v>
+        <v>23.95837363678275</v>
       </c>
       <c r="D143">
-        <v>24.26202035424834</v>
+        <v>24.34842386304927</v>
       </c>
       <c r="E143">
-        <v>24.16032135388436</v>
+        <v>24.61530681053535</v>
       </c>
       <c r="F143">
-        <v>24.56733751552349</v>
+        <v>24.6085180150088</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>24.47011561809519</v>
+        <v>24.67179976789184</v>
       </c>
       <c r="C144">
-        <v>24.48901951281417</v>
+        <v>23.83824837386195</v>
       </c>
       <c r="D144">
-        <v>24.14147185213021</v>
+        <v>24.22660630765849</v>
       </c>
       <c r="E144">
-        <v>24.04402522676952</v>
+        <v>24.48576583416185</v>
       </c>
       <c r="F144">
-        <v>24.43833989986244</v>
+        <v>24.47898658081087</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>24.34071756072166</v>
+        <v>24.54253316090091</v>
       </c>
       <c r="C145">
-        <v>24.35960203411583</v>
+        <v>23.71815250083905</v>
       </c>
       <c r="D145">
-        <v>24.02069835968222</v>
+        <v>24.10485076399219</v>
       </c>
       <c r="E145">
-        <v>23.92698262503571</v>
+        <v>24.35635367218183</v>
       </c>
       <c r="F145">
-        <v>24.30943881624051</v>
+        <v>24.3495836833529</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>24.21144845746253</v>
+        <v>24.41338456360575</v>
       </c>
       <c r="C146">
-        <v>24.23031360235126</v>
+        <v>23.59810790226742</v>
       </c>
       <c r="D146">
-        <v>23.89971878799713</v>
+        <v>23.98315989495411</v>
       </c>
       <c r="E146">
-        <v>23.80922793131092</v>
+        <v>24.22707029055508</v>
       </c>
       <c r="F146">
-        <v>24.18063676660908</v>
+        <v>24.22030931457043</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>24.08230823572393</v>
+        <v>24.28435483536638</v>
       </c>
       <c r="C147">
-        <v>24.10115413407075</v>
+        <v>23.4781302534705</v>
       </c>
       <c r="D147">
-        <v>23.77855093759645</v>
+        <v>23.86153608660091</v>
       </c>
       <c r="E147">
-        <v>23.69079487556562</v>
+        <v>24.09791563998862</v>
       </c>
       <c r="F147">
-        <v>24.05193599940721</v>
+        <v>24.09116345302029</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>23.95329681466488</v>
+        <v>24.15544476678119</v>
       </c>
       <c r="C148">
-        <v>23.97212353943733</v>
+        <v>23.35823083981842</v>
       </c>
       <c r="D148">
-        <v>23.65721152853048</v>
+        <v>23.73998155418013</v>
       </c>
       <c r="E148">
-        <v>23.57171660806178</v>
+        <v>23.96888966071466</v>
       </c>
       <c r="F148">
-        <v>23.92333854630877</v>
+        <v>23.96214606050487</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>23.82441410771678</v>
+        <v>24.0266550368811</v>
       </c>
       <c r="C149">
-        <v>23.84322172294268</v>
+        <v>23.23841792636131</v>
       </c>
       <c r="D149">
-        <v>23.53571633837509</v>
+        <v>23.61849831021154</v>
       </c>
       <c r="E149">
-        <v>23.45202578120883</v>
+        <v>23.83999228341264</v>
       </c>
       <c r="F149">
-        <v>23.79484625325028</v>
+        <v>23.83325708895215</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>23.69566002079413</v>
+        <v>23.89798625989883</v>
       </c>
       <c r="C150">
-        <v>23.71444858475829</v>
+        <v>23.11869772853674</v>
       </c>
       <c r="D150">
-        <v>23.41408018315681</v>
+        <v>23.49708821955855</v>
       </c>
       <c r="E150">
-        <v>23.33175464080948</v>
+        <v>23.71122343094517</v>
       </c>
       <c r="F150">
-        <v>23.66646078021549</v>
+        <v>23.7044964782677</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>23.56703445639086</v>
+        <v>23.76943896563026</v>
       </c>
       <c r="C151">
-        <v>23.58580402109932</v>
+        <v>22.99907507087141</v>
       </c>
       <c r="D151">
-        <v>23.29231706010847</v>
+        <v>23.37575298159397</v>
       </c>
       <c r="E151">
-        <v>23.21093513563786</v>
+        <v>23.58258301946528</v>
       </c>
       <c r="F151">
-        <v>23.53818364395492</v>
+        <v>23.57586415953036</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>23.43853731137244</v>
+        <v>23.64101363738624</v>
       </c>
       <c r="C152">
-        <v>23.45728792456353</v>
+        <v>22.87955382482425</v>
       </c>
       <c r="D152">
-        <v>23.17044012368721</v>
+        <v>23.25449418307094</v>
       </c>
       <c r="E152">
-        <v>23.08959904126561</v>
+        <v>23.45407095819869</v>
       </c>
       <c r="F152">
-        <v>23.41001620180726</v>
+        <v>23.44736005642187</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>23.31016847964242</v>
+        <v>23.51271068826496</v>
       </c>
       <c r="C153">
-        <v>23.32890018505985</v>
+        <v>22.76013721972506</v>
       </c>
       <c r="D153">
-        <v>23.04846180515826</v>
+        <v>23.13331326142255</v>
       </c>
       <c r="E153">
-        <v>22.96777810243224</v>
+        <v>23.3256871522916</v>
       </c>
       <c r="F153">
-        <v>23.28195969741027</v>
+        <v>23.31898408554435</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>23.18192785194802</v>
+        <v>23.38453049054625</v>
       </c>
       <c r="C154">
-        <v>23.20064068976371</v>
+        <v>22.6408280437585</v>
       </c>
       <c r="D154">
-        <v>22.92639380497517</v>
+        <v>23.01221156851729</v>
       </c>
       <c r="E154">
-        <v>22.84550420343845</v>
+        <v>23.19743150129566</v>
       </c>
       <c r="F154">
-        <v>23.15401524301105</v>
+        <v>23.19073615834345</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>23.05381531660895</v>
+        <v>23.25647336591697</v>
       </c>
       <c r="C155">
-        <v>23.07250932449338</v>
+        <v>22.52162877249875</v>
       </c>
       <c r="D155">
-        <v>22.80424718048163</v>
+        <v>22.89119032753595</v>
       </c>
       <c r="E155">
-        <v>22.72280956801754</v>
+        <v>23.06930390161796</v>
       </c>
       <c r="F155">
-        <v>23.02618385748514</v>
+        <v>23.06261618122095</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>22.92583076009475</v>
+        <v>23.12853959413421</v>
       </c>
       <c r="C156">
-        <v>22.94450597210346</v>
+        <v>22.40254165361505</v>
       </c>
       <c r="D156">
-        <v>22.68203235700287</v>
+        <v>22.77025068789305</v>
       </c>
       <c r="E156">
-        <v>22.59972699152267</v>
+        <v>22.94130424618945</v>
       </c>
       <c r="F156">
-        <v>22.89846645552869</v>
+        <v>22.93462405663312</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>22.79797406674717</v>
+        <v>23.00072942041433</v>
       </c>
       <c r="C157">
-        <v>22.81663051594563</v>
+        <v>22.28356876508783</v>
       </c>
       <c r="D157">
-        <v>22.55975918693352</v>
+        <v>22.64939369729247</v>
       </c>
       <c r="E157">
-        <v>22.47629010921813</v>
+        <v>22.8134324255068</v>
       </c>
       <c r="F157">
-        <v>22.77086387481803</v>
+        <v>22.80675968347225</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>22.67024511991927</v>
+        <v>22.87304305314771</v>
       </c>
       <c r="C158">
-        <v>22.68888283660852</v>
+        <v>22.16471205113004</v>
       </c>
       <c r="D158">
-        <v>22.43743697503776</v>
+        <v>22.52862033620027</v>
       </c>
       <c r="E158">
-        <v>22.35253369554122</v>
+        <v>22.68568832774054</v>
       </c>
       <c r="F158">
-        <v>22.64337686782355</v>
+        <v>22.67902295718918</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>22.54264380113845</v>
+        <v>22.74548067374344</v>
       </c>
       <c r="C159">
-        <v>22.5612628142861</v>
+        <v>22.04597334715882</v>
       </c>
       <c r="D159">
-        <v>22.31507451324375</v>
+        <v>22.40793150518812</v>
       </c>
       <c r="E159">
-        <v>22.22849397897832</v>
+        <v>22.55807183928124</v>
       </c>
       <c r="F159">
-        <v>22.51600612580749</v>
+        <v>22.55141377092555</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>22.41516999116267</v>
+        <v>22.618042435283</v>
       </c>
       <c r="C160">
-        <v>22.43377032894477</v>
+        <v>21.92735439820216</v>
       </c>
       <c r="D160">
-        <v>22.19268011971289</v>
+        <v>22.28732804690846</v>
       </c>
       <c r="E160">
-        <v>22.1042089324365</v>
+        <v>22.4305828448182</v>
       </c>
       <c r="F160">
-        <v>22.3887522672007</v>
+        <v>22.42393201507368</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>22.28782356957217</v>
+        <v>22.49072846871382</v>
       </c>
       <c r="C161">
-        <v>22.30640525819478</v>
+        <v>21.80885686855964</v>
       </c>
       <c r="D161">
-        <v>22.07026165028562</v>
+        <v>22.16681072858594</v>
       </c>
       <c r="E161">
-        <v>21.97971845920863</v>
+        <v>22.30322122754173</v>
       </c>
       <c r="F161">
-        <v>22.2616158607752</v>
+        <v>22.2965775782218</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>22.16060441527056</v>
+        <v>22.36353888164328</v>
       </c>
       <c r="C162">
-        <v>22.17916748067894</v>
+        <v>21.69048234697587</v>
       </c>
       <c r="D162">
-        <v>21.94782655126054</v>
+        <v>22.0463802811817</v>
       </c>
       <c r="E162">
-        <v>21.85506434532399</v>
+        <v>22.17598686954544</v>
       </c>
       <c r="F162">
-        <v>22.13459741439148</v>
+        <v>22.16935034712123</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>22.03351240649651</v>
+        <v>22.23647376516232</v>
       </c>
       <c r="C163">
-        <v>22.05205687326049</v>
+        <v>21.57223236126127</v>
       </c>
       <c r="D163">
-        <v>21.82538185591433</v>
+        <v>21.92603739181998</v>
       </c>
       <c r="E163">
-        <v>21.73028979796687</v>
+        <v>22.04887965169587</v>
       </c>
       <c r="F163">
-        <v>22.00769739342315</v>
+        <v>22.04225020705054</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>21.90654742092985</v>
+        <v>22.1095331890347</v>
       </c>
       <c r="C164">
-        <v>21.92507331298349</v>
+        <v>21.45410837948256</v>
       </c>
       <c r="D164">
-        <v>21.70293423578465</v>
+        <v>21.8057826545976</v>
       </c>
       <c r="E164">
-        <v>21.60543838359707</v>
+        <v>21.92189945410097</v>
       </c>
       <c r="F164">
-        <v>21.88091621418212</v>
+        <v>21.91527704205809</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>21.77970933589449</v>
+        <v>21.98271721097044</v>
       </c>
       <c r="C165">
-        <v>21.79821667636184</v>
+        <v>21.33611181126783</v>
       </c>
       <c r="D165">
-        <v>21.5804899984754</v>
+        <v>21.68561667618753</v>
       </c>
       <c r="E165">
-        <v>21.48055231967828</v>
+        <v>21.7950461560429</v>
       </c>
       <c r="F165">
-        <v>21.75425425598495</v>
+        <v>21.78843073473101</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>21.65299802824533</v>
+        <v>21.85602587010526</v>
       </c>
       <c r="C166">
-        <v>21.67148683956006</v>
+        <v>21.21824401468111</v>
       </c>
       <c r="D166">
-        <v>21.4580551300107</v>
+        <v>21.56554002433935</v>
       </c>
       <c r="E166">
-        <v>21.35567036503795</v>
+        <v>21.6683196362536</v>
       </c>
       <c r="F166">
-        <v>21.62771185871377</v>
+        <v>21.66171116722787</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>21.52641337460778</v>
+        <v>21.72945919549182</v>
       </c>
       <c r="C167">
-        <v>21.5448836786591</v>
+        <v>21.10050629973698</v>
       </c>
       <c r="D167">
-        <v>21.33563529552562</v>
+        <v>21.4455531754192</v>
       </c>
       <c r="E167">
-        <v>21.23082588270105</v>
+        <v>21.54171977290604</v>
       </c>
       <c r="F167">
-        <v>21.50128933056428</v>
+        <v>21.5351182206103</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>21.39995525121453</v>
+        <v>21.6030172015744</v>
       </c>
       <c r="C168">
-        <v>21.41840706942006</v>
+        <v>20.9828999295542</v>
       </c>
       <c r="D168">
-        <v>21.21323587331019</v>
+        <v>21.3256566186053</v>
       </c>
       <c r="E168">
-        <v>21.10604569111371</v>
+        <v>21.41524644379</v>
       </c>
       <c r="F168">
-        <v>21.37498694715547</v>
+        <v>21.40865177490289</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>21.2736235343427</v>
+        <v>21.47669989365539</v>
       </c>
       <c r="C169">
-        <v>21.29205688770841</v>
+        <v>20.86542612364252</v>
       </c>
       <c r="D169">
-        <v>21.09086195884144</v>
+        <v>21.20585082119297</v>
       </c>
       <c r="E169">
-        <v>20.98134998331934</v>
+        <v>21.28889952629983</v>
       </c>
       <c r="F169">
-        <v>21.24880495725681</v>
+        <v>21.28231171065332</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>21.14741809984734</v>
+        <v>21.3505072657116</v>
       </c>
       <c r="C170">
-        <v>21.16583300910513</v>
+        <v>20.74808606063941</v>
       </c>
       <c r="D170">
-        <v>20.96851839044611</v>
+        <v>21.08613618317895</v>
       </c>
       <c r="E170">
-        <v>20.8567531433269</v>
+        <v>21.1626788975311</v>
       </c>
       <c r="F170">
-        <v>21.12274358226176</v>
+        <v>21.15609790637402</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>21.02133882361242</v>
+        <v>21.22443930397565</v>
       </c>
       <c r="C171">
-        <v>21.03973530919055</v>
+        <v>20.63088088109631</v>
       </c>
       <c r="D171">
-        <v>20.84620975781118</v>
+        <v>20.96651309282925</v>
       </c>
       <c r="E171">
-        <v>20.73226497026884</v>
+        <v>21.03658443433906</v>
       </c>
       <c r="F171">
-        <v>20.99680302061133</v>
+        <v>21.03001024128063</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>20.89538558168079</v>
+        <v>21.09849598518315</v>
       </c>
       <c r="C172">
-        <v>20.91376366359898</v>
+        <v>20.51381168931443</v>
       </c>
       <c r="D172">
-        <v>20.72394041277597</v>
+        <v>20.84698192924611</v>
       </c>
       <c r="E172">
-        <v>20.60789193166054</v>
+        <v>20.91061601329473</v>
       </c>
       <c r="F172">
-        <v>20.87098344785936</v>
+        <v>20.90404859410333</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>20.76955824943112</v>
+        <v>20.97267727997808</v>
       </c>
       <c r="C173">
-        <v>20.78791794770263</v>
+        <v>20.39687955463786</v>
       </c>
       <c r="D173">
-        <v>20.60171449375795</v>
+        <v>20.72754303093069</v>
       </c>
       <c r="E173">
-        <v>20.48363820550857</v>
+        <v>20.78477351091464</v>
       </c>
       <c r="F173">
-        <v>20.74528501969325</v>
+        <v>20.77821284238382</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>20.64385670283264</v>
+        <v>20.84698315073067</v>
       </c>
       <c r="C174">
-        <v>20.66219803709062</v>
+        <v>20.28008551375879</v>
       </c>
       <c r="D174">
-        <v>20.47953594514191</v>
+        <v>20.60819671486756</v>
       </c>
       <c r="E174">
-        <v>20.35950646075445</v>
+        <v>20.65905680358161</v>
       </c>
       <c r="F174">
-        <v>20.6197078728413</v>
+        <v>20.65250286429494</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>20.51828081761992</v>
+        <v>20.72141355479431</v>
       </c>
       <c r="C175">
-        <v>20.53660380720441</v>
+        <v>20.16343057356652</v>
       </c>
       <c r="D175">
-        <v>20.35740847414545</v>
+        <v>20.48894328887839</v>
       </c>
       <c r="E175">
-        <v>20.23549839963084</v>
+        <v>20.5334657674312</v>
       </c>
       <c r="F175">
-        <v>20.49425212674092</v>
+        <v>20.52691853732535</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>20.39283046930096</v>
+        <v>20.59596844279391</v>
       </c>
       <c r="C176">
-        <v>20.41113513356918</v>
+        <v>20.04691571072832</v>
       </c>
       <c r="D176">
-        <v>20.23533565554642</v>
+        <v>20.3697830366935</v>
       </c>
       <c r="E176">
-        <v>20.11161510240821</v>
+        <v>20.40800027883181</v>
       </c>
       <c r="F176">
-        <v>20.36891788514571</v>
+        <v>20.40145973876517</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>20.26750553372332</v>
+        <v>20.47064776062992</v>
       </c>
       <c r="C177">
-        <v>20.28579189173433</v>
+        <v>19.93054187672095</v>
       </c>
       <c r="D177">
-        <v>20.11332088206532</v>
+        <v>20.25071622425401</v>
       </c>
       <c r="E177">
-        <v>19.98785726996469</v>
+        <v>20.28266021393201</v>
       </c>
       <c r="F177">
-        <v>20.24370523564681</v>
+        <v>20.27612634589135</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>20.1423058865744</v>
+        <v>20.34545144905272</v>
       </c>
       <c r="C178">
-        <v>20.16057395729559</v>
+        <v>19.8143099975819</v>
       </c>
       <c r="D178">
-        <v>19.9913673317445</v>
+        <v>20.13174310782389</v>
       </c>
       <c r="E178">
-        <v>19.86422536333598</v>
+        <v>20.15744544878488</v>
       </c>
       <c r="F178">
-        <v>20.11861425381317</v>
+        <v>20.15091823575696</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>20.01723140361089</v>
+        <v>20.22037944448668</v>
       </c>
       <c r="C179">
-        <v>20.03548120591997</v>
+        <v>19.69822097469666</v>
       </c>
       <c r="D179">
-        <v>19.86947809363602</v>
+        <v>20.01286392662679</v>
       </c>
       <c r="E179">
-        <v>19.74071969530915</v>
+        <v>20.03235585973733</v>
       </c>
       <c r="F179">
-        <v>19.99364500420261</v>
+        <v>20.02583528541689</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>19.89228196068043</v>
+        <v>20.09543167926878</v>
       </c>
       <c r="C180">
-        <v>19.91051351332893</v>
+        <v>19.58227568779544</v>
       </c>
       <c r="D180">
-        <v>19.74765608315831</v>
+        <v>19.89407890342751</v>
       </c>
       <c r="E180">
-        <v>19.61734048776804</v>
+        <v>19.90739132283533</v>
       </c>
       <c r="F180">
-        <v>19.86879753327291</v>
+        <v>19.90087737183567</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>19.767457433662</v>
+        <v>19.97060808198322</v>
       </c>
       <c r="C181">
-        <v>19.78567075535604</v>
+        <v>19.46647499607714</v>
       </c>
       <c r="D181">
-        <v>19.62590404867125</v>
+        <v>19.77538825725046</v>
       </c>
       <c r="E181">
-        <v>19.49408790211241</v>
+        <v>19.78255171429366</v>
       </c>
       <c r="F181">
-        <v>19.74407188459121</v>
+        <v>19.77604437190497</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>19.64275769853566</v>
+        <v>19.84590857786623</v>
       </c>
       <c r="C182">
-        <v>19.66095280789033</v>
+        <v>19.35081973854107</v>
       </c>
       <c r="D182">
-        <v>19.50422465090448</v>
+        <v>19.65679219270372</v>
       </c>
       <c r="E182">
-        <v>19.37096206395441</v>
+        <v>19.6578369104238</v>
       </c>
       <c r="F182">
-        <v>19.61946809111282</v>
+        <v>19.65133616263847</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>19.51818263135599</v>
+        <v>19.72133308889864</v>
       </c>
       <c r="C183">
-        <v>19.5363595469184</v>
+        <v>19.23531073574734</v>
       </c>
       <c r="D183">
-        <v>19.38262039974848</v>
+        <v>19.53829089633362</v>
       </c>
       <c r="E183">
-        <v>19.24796307493858</v>
+        <v>19.53324678741305</v>
       </c>
       <c r="F183">
-        <v>19.49498616795498</v>
+        <v>19.52675262085634</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>19.39373210825341</v>
+        <v>19.59688153433224</v>
       </c>
       <c r="C184">
-        <v>19.41189084853993</v>
+        <v>19.11994879197442</v>
       </c>
       <c r="D184">
-        <v>19.26109368405614</v>
+        <v>19.41988455648987</v>
       </c>
       <c r="E184">
-        <v>19.1250910201183</v>
+        <v>19.4087812216429</v>
       </c>
       <c r="F184">
-        <v>19.37062613182722</v>
+        <v>19.40229362352105</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>19.26940600549872</v>
+        <v>19.47255383054664</v>
       </c>
       <c r="C185">
-        <v>19.28754658891092</v>
+        <v>19.00473469585173</v>
       </c>
       <c r="D185">
-        <v>19.13964679784118</v>
+        <v>19.30157334906407</v>
       </c>
       <c r="E185">
-        <v>19.00234597389445</v>
+        <v>19.28444008952078</v>
       </c>
       <c r="F185">
-        <v>19.2463879888454</v>
+        <v>19.27795904762126</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>19.14520419940652</v>
+        <v>19.3483498916959</v>
       </c>
       <c r="C186">
-        <v>19.16332664432664</v>
+        <v>18.88966922029618</v>
       </c>
       <c r="D186">
-        <v>19.01828191220547</v>
+        <v>19.18335743397229</v>
       </c>
       <c r="E186">
-        <v>18.87972800250442</v>
+        <v>19.16022326750996</v>
       </c>
       <c r="F186">
-        <v>19.12227173157995</v>
+        <v>19.15374877004499</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>19.0211265664186</v>
+        <v>19.2242696294306</v>
       </c>
       <c r="C187">
-        <v>19.03923089116152</v>
+        <v>18.77475312502286</v>
       </c>
       <c r="D187">
-        <v>18.89700110703462</v>
+        <v>19.06523697246377</v>
       </c>
       <c r="E187">
-        <v>18.75723716596404</v>
+        <v>19.03613063218841</v>
       </c>
       <c r="F187">
-        <v>18.99827735279793</v>
+        <v>19.0296626678486</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>18.89717298310332</v>
+        <v>19.10031295354027</v>
       </c>
       <c r="C188">
-        <v>18.91525920590637</v>
+        <v>18.65998715721133</v>
       </c>
       <c r="D188">
-        <v>18.77580637227908</v>
+        <v>18.94721211605727</v>
       </c>
       <c r="E188">
-        <v>18.63487351956728</v>
+        <v>18.91216206020705</v>
       </c>
       <c r="F188">
-        <v>18.87440483637064</v>
+        <v>18.90570061807933</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>18.77334332607668</v>
+        <v>18.9764797716862</v>
       </c>
       <c r="C189">
-        <v>18.79141146516118</v>
+        <v>18.54537205187015</v>
       </c>
       <c r="D189">
-        <v>18.65469959071187</v>
+        <v>18.82928300561862</v>
       </c>
       <c r="E189">
-        <v>18.51263711481394</v>
+        <v>18.78831742831117</v>
       </c>
       <c r="F189">
-        <v>18.75065415774162</v>
+        <v>18.78186249783716</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.64963747211423</v>
+        <v>18.85276998994469</v>
       </c>
       <c r="C190">
-        <v>18.66768754563842</v>
+        <v>18.43090853385235</v>
       </c>
       <c r="D190">
-        <v>18.53368257907332</v>
+        <v>18.71144978017335</v>
       </c>
       <c r="E190">
-        <v>18.39052799990223</v>
+        <v>18.66459661337434</v>
       </c>
       <c r="F190">
-        <v>18.62702528977608</v>
+        <v>18.65814818430717</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>18.52605529808534</v>
+        <v>18.72918351259168</v>
       </c>
       <c r="C191">
-        <v>18.54408732416796</v>
+        <v>18.31659731863096</v>
       </c>
       <c r="D191">
-        <v>18.41275706942722</v>
+        <v>18.59371257205935</v>
       </c>
       <c r="E191">
-        <v>18.26854622010845</v>
+        <v>18.54099949232644</v>
       </c>
       <c r="F191">
-        <v>18.50351819893322</v>
+        <v>18.53455755473717</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>18.40259668096533</v>
+        <v>18.60572024253852</v>
       </c>
       <c r="C192">
-        <v>18.42061067769384</v>
+        <v>18.20243911239084</v>
       </c>
       <c r="D192">
-        <v>18.29192470304051</v>
+        <v>18.47607150651616</v>
       </c>
       <c r="E192">
-        <v>18.14669181822537</v>
+        <v>18.41752594223505</v>
       </c>
       <c r="F192">
-        <v>18.38013284616222</v>
+        <v>18.4110904864654</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>18.2792614978548</v>
+        <v>18.48238008102459</v>
       </c>
       <c r="C193">
-        <v>18.29725748328587</v>
+        <v>18.08843461297774</v>
       </c>
       <c r="D193">
-        <v>18.17118706768017</v>
+        <v>18.35852670617447</v>
       </c>
       <c r="E193">
-        <v>18.02496483492115</v>
+        <v>18.29417584028644</v>
       </c>
       <c r="F193">
-        <v>18.25686918920347</v>
+        <v>18.2877468569128</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>18.1560496259706</v>
+        <v>18.35916292837288</v>
       </c>
       <c r="C194">
-        <v>18.17402761812927</v>
+        <v>17.97458451092262</v>
       </c>
       <c r="D194">
-        <v>18.05054567440983</v>
+        <v>18.24107828909737</v>
       </c>
       <c r="E194">
-        <v>17.90336530911516</v>
+        <v>18.17094906372809</v>
       </c>
       <c r="F194">
-        <v>18.13372718080823</v>
+        <v>18.16452654358296</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>18.03296094265033</v>
+        <v>18.23606868381444</v>
       </c>
       <c r="C195">
-        <v>18.05092095953205</v>
+        <v>17.86088949055357</v>
       </c>
       <c r="D195">
-        <v>17.93000196140583</v>
+        <v>18.12372636741084</v>
       </c>
       <c r="E195">
-        <v>17.78189327822244</v>
+        <v>18.04784548996583</v>
       </c>
       <c r="F195">
-        <v>18.01070676947263</v>
+        <v>18.04142942410069</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>17.90999532535432</v>
+        <v>18.11309724459823</v>
       </c>
       <c r="C196">
-        <v>17.92793738492916</v>
+        <v>17.74735022975769</v>
       </c>
       <c r="D196">
-        <v>17.8095573180075</v>
+        <v>18.00647105141039</v>
       </c>
       <c r="E196">
-        <v>17.66054877786405</v>
+        <v>17.92486499650498</v>
       </c>
       <c r="F196">
-        <v>17.88780790131178</v>
+        <v>17.91845537615632</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>17.78715265166205</v>
+        <v>17.99024850810567</v>
       </c>
       <c r="C197">
-        <v>17.80507677187162</v>
+        <v>17.63396740198069</v>
       </c>
       <c r="D197">
-        <v>17.68921306624839</v>
+        <v>17.88931244838426</v>
       </c>
       <c r="E197">
-        <v>17.53933184267506</v>
+        <v>17.80200746095505</v>
       </c>
       <c r="F197">
-        <v>17.76503051782232</v>
+        <v>17.79560427756179</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>17.66443279928495</v>
+        <v>17.86752237072534</v>
       </c>
       <c r="C198">
-        <v>17.68233899804227</v>
+        <v>17.52074167664848</v>
       </c>
       <c r="D198">
-        <v>17.56897047195455</v>
+        <v>17.77225066054518</v>
       </c>
       <c r="E198">
-        <v>17.41824250618767</v>
+        <v>17.67927276105775</v>
       </c>
       <c r="F198">
-        <v>17.64237455726223</v>
+        <v>17.67287600623796</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>17.54183564605593</v>
+        <v>17.74491872691349</v>
       </c>
       <c r="C199">
-        <v>17.55972394124511</v>
+        <v>17.40767371905137</v>
       </c>
       <c r="D199">
-        <v>17.44883075443962</v>
+        <v>17.65528578841086</v>
       </c>
       <c r="E199">
-        <v>17.29728080117981</v>
+        <v>17.55666077466948</v>
       </c>
       <c r="F199">
-        <v>17.51983995600761</v>
+        <v>17.55027044018648</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>17.4193610699289</v>
+        <v>17.62243747130159</v>
       </c>
       <c r="C200">
-        <v>17.43723147941209</v>
+        <v>17.29476419156588</v>
       </c>
       <c r="D200">
-        <v>17.32879507504437</v>
+        <v>17.5384179308473</v>
       </c>
       <c r="E200">
-        <v>17.17644675985809</v>
+        <v>17.43417137976834</v>
       </c>
       <c r="F200">
-        <v>17.39742664628405</v>
+        <v>17.42778745754244</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>17.29700894899449</v>
+        <v>17.50007849793446</v>
       </c>
       <c r="C201">
-        <v>17.31486149060231</v>
+        <v>17.18201375412582</v>
       </c>
       <c r="D201">
-        <v>17.20886455210884</v>
+        <v>17.42164718299517</v>
       </c>
       <c r="E201">
-        <v>17.05574041387536</v>
+        <v>17.31180445445751</v>
       </c>
       <c r="F201">
-        <v>17.27513455803034</v>
+        <v>17.30542693654163</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>17.1747791614616</v>
+        <v>17.37784169948635</v>
       </c>
       <c r="C202">
-        <v>17.19261385300268</v>
+        <v>17.0694230654123</v>
       </c>
       <c r="D202">
-        <v>17.08904026073849</v>
+        <v>17.30497363808876</v>
       </c>
       <c r="E202">
-        <v>16.93516179454936</v>
+        <v>17.18955987696118</v>
       </c>
       <c r="F202">
-        <v>17.1529636192364</v>
+        <v>17.18318875553188</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>17.05267158567023</v>
+        <v>17.25572696818766</v>
       </c>
       <c r="C203">
-        <v>17.0704884449293</v>
+        <v>16.95699278199735</v>
       </c>
       <c r="D203">
-        <v>16.96932322544856</v>
+        <v>17.18839738857714</v>
       </c>
       <c r="E203">
-        <v>16.81471093308884</v>
+        <v>17.0674375256327</v>
       </c>
       <c r="F203">
-        <v>17.03091375465861</v>
+        <v>17.06107279298115</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>16.93068610009026</v>
+        <v>17.13373419611936</v>
       </c>
       <c r="C204">
-        <v>16.94848514482677</v>
+        <v>16.84472356011352</v>
       </c>
       <c r="D204">
-        <v>16.8497144383778</v>
+        <v>17.07191852453526</v>
       </c>
       <c r="E204">
-        <v>16.69438786074488</v>
+        <v>16.94543727895323</v>
       </c>
       <c r="F204">
-        <v>16.90898488733825</v>
+        <v>16.93907892747158</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.80882258331791</v>
+        <v>17.01186327449284</v>
       </c>
       <c r="C205">
-        <v>16.82660383127088</v>
+        <v>16.73261605604456</v>
       </c>
       <c r="D205">
-        <v>16.73021485122753</v>
+        <v>16.9555371344523</v>
       </c>
       <c r="E205">
-        <v>16.5741926091268</v>
+        <v>16.82355901552243</v>
       </c>
       <c r="F205">
-        <v>16.78717693838546</v>
+        <v>16.81720703770768</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>16.68708091408086</v>
+        <v>16.89011409391335</v>
       </c>
       <c r="C206">
-        <v>16.70484438296689</v>
+        <v>16.6206709238168</v>
       </c>
       <c r="D206">
-        <v>16.61082537384062</v>
+        <v>16.83925330641258</v>
       </c>
       <c r="E206">
-        <v>16.45412520983295</v>
+        <v>16.70180261407782</v>
       </c>
       <c r="F206">
-        <v>16.66548982642209</v>
+        <v>16.69545700251391</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>16.56546097123687</v>
+        <v>16.76848654487184</v>
       </c>
       <c r="C207">
-        <v>16.58320667875092</v>
+        <v>16.50888882228354</v>
       </c>
       <c r="D207">
-        <v>16.4915468886498</v>
+        <v>16.7230671271563</v>
       </c>
       <c r="E207">
-        <v>16.33418569508754</v>
+        <v>16.58016795348204</v>
       </c>
       <c r="F207">
-        <v>16.54392346877179</v>
+        <v>16.57382870083458</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>16.44396263377506</v>
+        <v>16.64698051732121</v>
       </c>
       <c r="C208">
-        <v>16.46169059759125</v>
+        <v>16.39727041160908</v>
       </c>
       <c r="D208">
-        <v>16.3723802422443</v>
+        <v>16.60697868240601</v>
       </c>
       <c r="E208">
-        <v>16.21437409781767</v>
+        <v>16.45865491272212</v>
       </c>
       <c r="F208">
-        <v>16.42247778103348</v>
+        <v>16.45232201174322</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>16.322585780816</v>
+        <v>16.5255959007481</v>
       </c>
       <c r="C209">
-        <v>16.34029601858646</v>
+        <v>16.28581635296187</v>
       </c>
       <c r="D209">
-        <v>16.25332624745931</v>
+        <v>16.49098805789926</v>
       </c>
       <c r="E209">
-        <v>16.0946904517195</v>
+        <v>16.33726337092122</v>
       </c>
       <c r="F209">
-        <v>16.30115267671141</v>
+        <v>16.33093681443157</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>16.20133029161203</v>
+        <v>16.40433258450111</v>
       </c>
       <c r="C210">
-        <v>16.21902282096854</v>
+        <v>16.17452731030573</v>
       </c>
       <c r="D210">
-        <v>16.13438569272317</v>
+        <v>16.37509533874617</v>
       </c>
       <c r="E210">
-        <v>15.97513479128938</v>
+        <v>16.21599320732975</v>
       </c>
       <c r="F210">
-        <v>16.17994806840185</v>
+        <v>16.20967298822003</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>16.08019604554866</v>
+        <v>16.28319045758744</v>
       </c>
       <c r="C211">
-        <v>16.09787088410111</v>
+        <v>16.06340394995215</v>
       </c>
       <c r="D211">
-        <v>16.01555933511102</v>
+        <v>16.25930060943444</v>
       </c>
       <c r="E211">
-        <v>15.85570715207718</v>
+        <v>16.09484430132872</v>
       </c>
       <c r="F211">
-        <v>16.05886386717916</v>
+        <v>16.08853041255711</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.95918292214473</v>
+        <v>16.16216940858202</v>
       </c>
       <c r="C212">
-        <v>15.97684008748132</v>
+        <v>15.95244694205512</v>
       </c>
       <c r="D212">
-        <v>15.89684790534965</v>
+        <v>16.14360395507121</v>
       </c>
       <c r="E212">
-        <v>15.7364075708996</v>
+        <v>15.97381653243194</v>
       </c>
       <c r="F212">
-        <v>15.93789998232888</v>
+        <v>15.96750896701334</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>15.83829080105074</v>
+        <v>16.04126932606118</v>
       </c>
       <c r="C213">
-        <v>15.8559303107399</v>
+        <v>15.84165696018121</v>
       </c>
       <c r="D213">
-        <v>15.7782521119525</v>
+        <v>16.02800546067264</v>
       </c>
       <c r="E213">
-        <v>15.6172360859556</v>
+        <v>15.852909780285</v>
       </c>
       <c r="F213">
-        <v>15.8170563224678</v>
+        <v>15.84660853129229</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>15.71751956205295</v>
+        <v>15.92049009836077</v>
       </c>
       <c r="C214">
-        <v>15.73514143364138</v>
+        <v>15.7310346822241</v>
       </c>
       <c r="D214">
-        <v>15.6597726362259</v>
+        <v>15.91250521098136</v>
       </c>
       <c r="E214">
-        <v>15.49819273676744</v>
+        <v>15.73212392466633</v>
       </c>
       <c r="F214">
-        <v>15.6963327948703</v>
+        <v>15.72582898522465</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>15.59686908507101</v>
+        <v>15.79983161335291</v>
       </c>
       <c r="C215">
-        <v>15.61447333608395</v>
+        <v>15.62058079156214</v>
       </c>
       <c r="D215">
-        <v>15.54141013950778</v>
+        <v>15.79710329186219</v>
       </c>
       <c r="E215">
-        <v>15.37927756468713</v>
+        <v>15.61145884548784</v>
       </c>
       <c r="F215">
-        <v>15.57572930538847</v>
+        <v>15.60517020877059</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>15.47633925015871</v>
+        <v>15.67929375905175</v>
       </c>
       <c r="C216">
-        <v>15.49392589810169</v>
+        <v>15.51029597655776</v>
       </c>
       <c r="D216">
-        <v>15.42316526285151</v>
+        <v>15.68179978956943</v>
       </c>
       <c r="E216">
-        <v>15.26049061242118</v>
+        <v>15.49091442279504</v>
       </c>
       <c r="F216">
-        <v>15.45524575925999</v>
+        <v>15.48463208202206</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>15.35592993750561</v>
+        <v>15.55887642326377</v>
       </c>
       <c r="C217">
-        <v>15.37349899986371</v>
+        <v>15.40018093180216</v>
       </c>
       <c r="D217">
-        <v>15.3050386240615</v>
+        <v>15.56659479060352</v>
       </c>
       <c r="E217">
-        <v>15.14183192432438</v>
+        <v>15.3704905367685</v>
       </c>
       <c r="F217">
-        <v>15.33488206058776</v>
+        <v>15.36421448520177</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>15.23564102743656</v>
+        <v>15.43857949349108</v>
       </c>
       <c r="C218">
-        <v>15.25319252167399</v>
+        <v>15.29023635772647</v>
       </c>
       <c r="D218">
-        <v>15.18703082589685</v>
+        <v>15.45148838284744</v>
       </c>
       <c r="E218">
-        <v>15.02330154745501</v>
+        <v>15.25018706772347</v>
       </c>
       <c r="F218">
-        <v>15.214638112397</v>
+        <v>15.24391729866537</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>15.1154724004123</v>
+        <v>15.31840285725876</v>
       </c>
       <c r="C219">
-        <v>15.13300634397272</v>
+        <v>15.18046296145157</v>
       </c>
       <c r="D219">
-        <v>15.06914245266104</v>
+        <v>15.33648065505881</v>
       </c>
       <c r="E219">
-        <v>14.90489953077991</v>
+        <v>15.13000389610994</v>
       </c>
       <c r="F219">
-        <v>15.09451381710737</v>
+        <v>15.12374040290142</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>14.99542393702996</v>
+        <v>15.19834640201492</v>
       </c>
       <c r="C220">
-        <v>15.01294034733727</v>
+        <v>15.07086145801516</v>
       </c>
       <c r="D220">
-        <v>14.95137407000358</v>
+        <v>15.22157169685788</v>
       </c>
       <c r="E220">
-        <v>14.78662592552587</v>
+        <v>15.00994090251493</v>
       </c>
       <c r="F220">
-        <v>14.97450907620632</v>
+        <v>15.00368367853168</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>14.87549551802415</v>
+        <v>15.07841001504556</v>
       </c>
       <c r="C221">
-        <v>14.89299441248167</v>
+        <v>14.96143256953398</v>
       </c>
       <c r="D221">
-        <v>14.83372623104818</v>
+        <v>15.10676159943027</v>
       </c>
       <c r="E221">
-        <v>14.66848078539281</v>
+        <v>14.88999796766116</v>
       </c>
       <c r="F221">
-        <v>14.85462379035208</v>
+        <v>14.88374700631339</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>14.75568702426631</v>
+        <v>14.95859358358718</v>
       </c>
       <c r="C222">
-        <v>14.77316842025695</v>
+        <v>14.85217702469074</v>
       </c>
       <c r="D222">
-        <v>14.71619947315056</v>
+        <v>14.992050455311</v>
       </c>
       <c r="E222">
-        <v>14.55046416638354</v>
+        <v>14.77017497240822</v>
       </c>
       <c r="F222">
-        <v>14.73485785965854</v>
+        <v>14.76393026713712</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>14.63599833676614</v>
+        <v>14.83889699487715</v>
       </c>
       <c r="C223">
-        <v>14.65346225165239</v>
+        <v>14.74309556114782</v>
       </c>
       <c r="D223">
-        <v>14.59879431909441</v>
+        <v>14.87743835847268</v>
       </c>
       <c r="E223">
-        <v>14.43257612734306</v>
+        <v>14.6504717977534</v>
       </c>
       <c r="F223">
-        <v>14.61521118345273</v>
+        <v>14.6442333420302</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>14.51642933667196</v>
+        <v>14.71932013607833</v>
       </c>
       <c r="C224">
-        <v>14.53387578779537</v>
+        <v>14.63418892561595</v>
       </c>
       <c r="D224">
-        <v>14.48151128107921</v>
+        <v>14.76292540468213</v>
       </c>
       <c r="E224">
-        <v>14.31481672985368</v>
+        <v>14.53088832483204</v>
       </c>
       <c r="F224">
-        <v>14.49568366041442</v>
+        <v>14.5246561121573</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>14.39697990527075</v>
+        <v>14.59986289431697</v>
       </c>
       <c r="C225">
-        <v>14.41440890995257</v>
+        <v>14.5254578742505</v>
       </c>
       <c r="D225">
-        <v>14.36435085805885</v>
+        <v>14.64851169153451</v>
       </c>
       <c r="E225">
-        <v>14.19718603854639</v>
+        <v>14.41142443491781</v>
       </c>
       <c r="F225">
-        <v>14.37627518876374</v>
+        <v>14.40519845882051</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>14.27764992398974</v>
+        <v>14.48052515675978</v>
       </c>
       <c r="C226">
-        <v>14.29506149953072</v>
+        <v>14.41690317261538</v>
       </c>
       <c r="D226">
-        <v>14.24731353816158</v>
+        <v>14.53419731852304</v>
       </c>
       <c r="E226">
-        <v>14.07968412115135</v>
+        <v>14.29208000942343</v>
       </c>
       <c r="F226">
-        <v>14.256985666036</v>
+        <v>14.2858602634558</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>14.1584392743957</v>
+        <v>14.36130681055495</v>
       </c>
       <c r="C227">
-        <v>14.17583343807512</v>
+        <v>14.30852559599037</v>
       </c>
       <c r="D227">
-        <v>14.13039980056648</v>
+        <v>14.41998238727836</v>
       </c>
       <c r="E227">
-        <v>13.96231104871332</v>
+        <v>14.17285492990213</v>
       </c>
       <c r="F227">
-        <v>14.13781498927537</v>
+        <v>14.16664140764161</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>14.03934783819587</v>
+        <v>14.24220774283005</v>
       </c>
       <c r="C228">
-        <v>14.05672460727178</v>
+        <v>14.20032593018706</v>
       </c>
       <c r="D228">
-        <v>14.01361011355461</v>
+        <v>14.30586700168825</v>
       </c>
       <c r="E228">
-        <v>13.84506689578853</v>
+        <v>14.05374907804663</v>
       </c>
       <c r="F228">
-        <v>14.01876305512675</v>
+        <v>14.04754177309565</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.92037549723849</v>
+        <v>14.12322784080165</v>
       </c>
       <c r="C229">
-        <v>13.93773488895022</v>
+        <v>14.09230497204315</v>
       </c>
       <c r="D229">
-        <v>13.89694493794937</v>
+        <v>14.19185126798939</v>
       </c>
       <c r="E229">
-        <v>13.72795174032669</v>
+        <v>13.93476233569104</v>
       </c>
       <c r="F229">
-        <v>13.89982975964913</v>
+        <v>13.92856124167559</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>13.80152213351656</v>
+        <v>14.00436699170712</v>
       </c>
       <c r="C230">
-        <v>13.81886416508008</v>
+        <v>13.98446353013569</v>
       </c>
       <c r="D230">
-        <v>13.78040472705041</v>
+        <v>14.07793529493547</v>
       </c>
       <c r="E230">
-        <v>13.61096566411361</v>
+        <v>13.81589458481157</v>
       </c>
       <c r="F230">
-        <v>13.78101499854086</v>
+        <v>13.80969969537584</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>13.68278762916285</v>
+        <v>13.88562508277335</v>
       </c>
       <c r="C231">
-        <v>13.7001123177728</v>
+        <v>13.87680242609608</v>
       </c>
       <c r="D231">
-        <v>13.66398992570081</v>
+        <v>13.96411919394437</v>
       </c>
       <c r="E231">
-        <v>13.494108752804</v>
+        <v>13.69714570752606</v>
       </c>
       <c r="F231">
-        <v>13.66231866714067</v>
+        <v>13.69095701633653</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>13.56417186645298</v>
+        <v>13.7670020013574</v>
       </c>
       <c r="C232">
-        <v>13.58147922928353</v>
+        <v>13.76932249259105</v>
       </c>
       <c r="D232">
-        <v>13.54770097390067</v>
+        <v>13.85040307925011</v>
       </c>
       <c r="E232">
-        <v>13.37738109623457</v>
+        <v>13.57851558609662</v>
       </c>
       <c r="F232">
-        <v>13.54374066030329</v>
+        <v>13.57233308683877</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>13.44567472780627</v>
+        <v>13.64849763486844</v>
       </c>
       <c r="C233">
-        <v>13.46296478201464</v>
+        <v>13.66202457322253</v>
       </c>
       <c r="D233">
-        <v>13.43153830562476</v>
+        <v>13.73678706803643</v>
       </c>
       <c r="E233">
-        <v>13.26078278844525</v>
+        <v>13.46000410292883</v>
       </c>
       <c r="F233">
-        <v>13.42528087262309</v>
+        <v>13.45382778930647</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>13.32729609579258</v>
+        <v>13.53011187073552</v>
       </c>
       <c r="C234">
-        <v>13.34456885850876</v>
+        <v>13.55490952540459</v>
       </c>
       <c r="D234">
-        <v>13.31550234906625</v>
+        <v>13.62327128053583</v>
       </c>
       <c r="E234">
-        <v>13.14431392778207</v>
+        <v>13.34161114057177</v>
       </c>
       <c r="F234">
-        <v>13.30693919837345</v>
+        <v>13.33544100630812</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>13.20903585312213</v>
+        <v>13.41184459653158</v>
       </c>
       <c r="C235">
-        <v>13.22629134145493</v>
+        <v>13.44797822060712</v>
       </c>
       <c r="D235">
-        <v>13.19959352925292</v>
+        <v>13.5098558402779</v>
       </c>
       <c r="E235">
-        <v>13.02797461727444</v>
+        <v>13.22333658171963</v>
       </c>
       <c r="F235">
-        <v>13.18871553143609</v>
+        <v>13.21717262055558</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>13.09089388265058</v>
+        <v>13.29369569990877</v>
       </c>
       <c r="C236">
-        <v>13.10813211369043</v>
+        <v>13.341231544466</v>
       </c>
       <c r="D236">
-        <v>13.08381226707298</v>
+        <v>13.39654087424601</v>
       </c>
       <c r="E236">
-        <v>12.91176496470579</v>
+        <v>13.10518030921524</v>
       </c>
       <c r="F236">
-        <v>13.07060976550604</v>
+        <v>13.0990225149062</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.9728700673809</v>
+        <v>13.17566506859637</v>
       </c>
       <c r="C237">
-        <v>12.99009105820017</v>
+        <v>13.23467039797733</v>
       </c>
       <c r="D237">
-        <v>12.96815898005439</v>
+        <v>13.28332651285324</v>
       </c>
       <c r="E237">
-        <v>12.79568508305966</v>
+        <v>12.98714220604977</v>
       </c>
       <c r="F237">
-        <v>12.95262179400031</v>
+        <v>12.98099057236379</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.85496429047168</v>
+        <v>13.05775259045079</v>
       </c>
       <c r="C238">
-        <v>12.87216805811396</v>
+        <v>13.12829569828887</v>
       </c>
       <c r="D238">
-        <v>12.85263408408188</v>
+        <v>13.17021289030441</v>
       </c>
       <c r="E238">
-        <v>12.67973509022844</v>
+        <v>12.8692221553567</v>
       </c>
       <c r="F238">
-        <v>12.8347515100285</v>
+        <v>12.86307667608477</v>
       </c>
     </row>
   </sheetData>
